--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_8_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_8_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1097738.249024383</v>
+        <v>-1100033.276084596</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673443</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14464325.05822701</v>
+        <v>14464325.058227</v>
       </c>
     </row>
     <row r="11">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>192.9610988726774</v>
+        <v>175.0426595591497</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>162.6080338315131</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>103.9917919211018</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>207.0368788505634</v>
       </c>
       <c r="G5" t="n">
-        <v>183.4693513325733</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V5" t="n">
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.1427070647979</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>117.2809195699208</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>174.155295883484</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>209.9064962068211</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>10.69576364311372</v>
@@ -1178,25 +1178,25 @@
         <v>8.395781178313161</v>
       </c>
       <c r="R8" t="n">
-        <v>148.9413660216818</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>208.6835142066282</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0311969618593</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.1591249337519</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>40.02188483835997</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>26.15047503329511</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>113.6616009681633</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K10" t="n">
         <v>21.49978743611831</v>
@@ -1333,7 +1333,7 @@
         <v>1.920177260816417</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>20.77080825674866</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>205.8389404899667</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0302782131675</v>
+        <v>251.030278213163</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>139.3637956279579</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>6.900428420177067</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>102.2720326869926</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>193.1994656988256</v>
       </c>
       <c r="T13" t="n">
         <v>220.3900066432377</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1658,7 +1658,7 @@
         <v>119.1875589003451</v>
       </c>
       <c r="T14" t="n">
-        <v>205.8389404899664</v>
+        <v>205.8389404899667</v>
       </c>
       <c r="U14" t="n">
         <v>251.030278213163</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>146.5051300313272</v>
+        <v>26.84448037854524</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>137.9544567960098</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2225751081712</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.3605538317165</v>
+        <v>411.3605538317171</v>
       </c>
       <c r="H17" t="n">
         <v>299.1019134679569</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>146.5051300313272</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2720326869926</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>97.7829393456236</v>
+        <v>97.78293934562359</v>
       </c>
       <c r="S19" t="n">
         <v>193.1994656988256</v>
       </c>
       <c r="T19" t="n">
-        <v>220.3900066432377</v>
+        <v>90.75482254763313</v>
       </c>
       <c r="U19" t="n">
         <v>286.2225751081712</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>126.6953048747617</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>119.1875589003452</v>
+        <v>119.1875589003451</v>
       </c>
       <c r="T20" t="n">
         <v>205.8389404899667</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.2226514725974</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>146.5051300313272</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>102.2720326869926</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>161.3472209488447</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.3900066432377</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2225751081712</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>81.55404823991221</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>97.7829393456236</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>193.1994656988256</v>
       </c>
       <c r="T25" t="n">
-        <v>197.4458407022865</v>
+        <v>188.5377618932573</v>
       </c>
       <c r="U25" t="n">
         <v>286.2225751081712</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.2226514725974</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>50.98818259603792</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>102.2720326869926</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>97.7829393456236</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>193.1994656988256</v>
       </c>
       <c r="T28" t="n">
         <v>220.3900066432377</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2225751081712</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>14.02543045711907</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2846,7 @@
         <v>205.8389404899667</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0302782131631</v>
+        <v>251.030278213163</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>193.1994656988256</v>
       </c>
       <c r="T31" t="n">
-        <v>8.705781711319123</v>
+        <v>220.3900066432377</v>
       </c>
       <c r="U31" t="n">
         <v>286.2225751081712</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>186.7324086021142</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>368.9630421927781</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3047,7 +3047,7 @@
         <v>299.1019134679569</v>
       </c>
       <c r="I32" t="n">
-        <v>58.49485311541227</v>
+        <v>44.72405364470956</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>154.5252495668016</v>
+        <v>154.5252495668017</v>
       </c>
       <c r="C34" t="n">
-        <v>141.9400904834921</v>
+        <v>141.9400904834922</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>123.3087424030767</v>
       </c>
       <c r="E34" t="n">
-        <v>121.1272320314335</v>
+        <v>121.1272320314336</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>120.1143174077956</v>
       </c>
       <c r="G34" t="n">
-        <v>140.9159208574617</v>
+        <v>140.9159208574619</v>
       </c>
       <c r="H34" t="n">
-        <v>121.1983994161915</v>
+        <v>121.1983994161916</v>
       </c>
       <c r="I34" t="n">
-        <v>76.96530207185693</v>
+        <v>76.96530207185701</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>72.4762087304879</v>
+        <v>72.47620873048798</v>
       </c>
       <c r="S34" t="n">
-        <v>167.8927350836899</v>
+        <v>167.89273508369</v>
       </c>
       <c r="T34" t="n">
-        <v>195.083276028102</v>
+        <v>195.0832760281021</v>
       </c>
       <c r="U34" t="n">
-        <v>260.9158444930355</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>2.618660235547942</v>
+        <v>20.11144491770857</v>
       </c>
       <c r="X34" t="n">
-        <v>200.4029247739014</v>
+        <v>200.4029247739016</v>
       </c>
       <c r="Y34" t="n">
-        <v>193.2779227369591</v>
+        <v>193.2779227369592</v>
       </c>
     </row>
     <row r="35">
@@ -3269,22 +3269,22 @@
         <v>309.3945536592496</v>
       </c>
       <c r="D35" t="n">
-        <v>298.804703508925</v>
+        <v>298.8047035089249</v>
       </c>
       <c r="E35" t="n">
         <v>326.0520319605038</v>
       </c>
       <c r="F35" t="n">
-        <v>350.9977076299535</v>
+        <v>350.9977076299534</v>
       </c>
       <c r="G35" t="n">
-        <v>355.4822157199586</v>
+        <v>355.4822157199585</v>
       </c>
       <c r="H35" t="n">
-        <v>243.223575356199</v>
+        <v>243.2235753561989</v>
       </c>
       <c r="I35" t="n">
-        <v>2.616515003654307</v>
+        <v>2.616515003654285</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>63.30922078858718</v>
+        <v>63.30922078858714</v>
       </c>
       <c r="T35" t="n">
         <v>149.9606023782087</v>
@@ -3326,10 +3326,10 @@
         <v>271.8739203583769</v>
       </c>
       <c r="W35" t="n">
-        <v>293.3626306056551</v>
+        <v>293.362630605655</v>
       </c>
       <c r="X35" t="n">
-        <v>313.8527625667111</v>
+        <v>313.852762566711</v>
       </c>
       <c r="Y35" t="n">
         <v>330.3596005442956</v>
@@ -3427,22 +3427,22 @@
         <v>111.3684829868699</v>
       </c>
       <c r="D37" t="n">
-        <v>92.7371349064544</v>
+        <v>92.73713490645437</v>
       </c>
       <c r="E37" t="n">
-        <v>90.55562453481122</v>
+        <v>90.55562453481119</v>
       </c>
       <c r="F37" t="n">
-        <v>89.54270991117329</v>
+        <v>89.54270991117326</v>
       </c>
       <c r="G37" t="n">
         <v>110.3443133608395</v>
       </c>
       <c r="H37" t="n">
-        <v>90.62679191956921</v>
+        <v>90.6267919195692</v>
       </c>
       <c r="I37" t="n">
-        <v>46.39369457523468</v>
+        <v>46.39369457523463</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.90460123386521</v>
+        <v>41.90460123386561</v>
       </c>
       <c r="S37" t="n">
         <v>137.3211275870676</v>
       </c>
       <c r="T37" t="n">
-        <v>164.5116685314798</v>
+        <v>164.5116685314797</v>
       </c>
       <c r="U37" t="n">
         <v>230.3442369964132</v>
@@ -3521,7 +3521,7 @@
         <v>243.223575356199</v>
       </c>
       <c r="I38" t="n">
-        <v>2.616515003654307</v>
+        <v>2.616515003654328</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>63.30922078858717</v>
+        <v>63.30922078858718</v>
       </c>
       <c r="T38" t="n">
         <v>149.9606023782087</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>123.9536420701793</v>
+        <v>123.9536420701794</v>
       </c>
       <c r="C40" t="n">
         <v>111.3684829868699</v>
       </c>
       <c r="D40" t="n">
-        <v>92.7371349064544</v>
+        <v>92.73713490645441</v>
       </c>
       <c r="E40" t="n">
-        <v>90.55562453481122</v>
+        <v>90.55562453481123</v>
       </c>
       <c r="F40" t="n">
-        <v>89.54270991117329</v>
+        <v>89.5427099111733</v>
       </c>
       <c r="G40" t="n">
         <v>110.3443133608395</v>
       </c>
       <c r="H40" t="n">
-        <v>90.62679191956921</v>
+        <v>90.62679191956924</v>
       </c>
       <c r="I40" t="n">
-        <v>46.39369457523467</v>
+        <v>46.39369457523468</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.90460123386563</v>
+        <v>41.90460123386565</v>
       </c>
       <c r="S40" t="n">
         <v>137.3211275870676</v>
@@ -3740,25 +3740,25 @@
         <v>326.8555035517226</v>
       </c>
       <c r="C41" t="n">
-        <v>309.3945536592496</v>
+        <v>309.3945536592495</v>
       </c>
       <c r="D41" t="n">
-        <v>298.804703508925</v>
+        <v>298.8047035089249</v>
       </c>
       <c r="E41" t="n">
         <v>326.0520319605038</v>
       </c>
       <c r="F41" t="n">
-        <v>350.9977076299537</v>
+        <v>350.9977076299534</v>
       </c>
       <c r="G41" t="n">
-        <v>355.4822157199586</v>
+        <v>355.4822157199585</v>
       </c>
       <c r="H41" t="n">
-        <v>243.223575356199</v>
+        <v>243.2235753561989</v>
       </c>
       <c r="I41" t="n">
-        <v>2.616515003654314</v>
+        <v>2.616515003654257</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>63.30922078858715</v>
+        <v>63.30922078858714</v>
       </c>
       <c r="T41" t="n">
-        <v>149.9606023782087</v>
+        <v>149.9606023782086</v>
       </c>
       <c r="U41" t="n">
         <v>195.151940101405</v>
       </c>
       <c r="V41" t="n">
-        <v>271.8739203583769</v>
+        <v>271.8739203583786</v>
       </c>
       <c r="W41" t="n">
-        <v>293.3626306056551</v>
+        <v>293.362630605655</v>
       </c>
       <c r="X41" t="n">
-        <v>313.8527625667111</v>
+        <v>313.852762566711</v>
       </c>
       <c r="Y41" t="n">
         <v>330.3596005442956</v>
@@ -3898,25 +3898,25 @@
         <v>123.9536420701793</v>
       </c>
       <c r="C43" t="n">
-        <v>111.3684829868699</v>
+        <v>111.3684829868698</v>
       </c>
       <c r="D43" t="n">
-        <v>92.73713490645439</v>
+        <v>92.73713490645436</v>
       </c>
       <c r="E43" t="n">
-        <v>90.5556245348112</v>
+        <v>90.55562453481117</v>
       </c>
       <c r="F43" t="n">
-        <v>89.54270991117328</v>
+        <v>89.54270991117325</v>
       </c>
       <c r="G43" t="n">
         <v>110.3443133608395</v>
       </c>
       <c r="H43" t="n">
-        <v>90.62679191956921</v>
+        <v>90.62679191956919</v>
       </c>
       <c r="I43" t="n">
-        <v>46.39369457523466</v>
+        <v>46.39369457523462</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.90460123386563</v>
+        <v>41.90460123386559</v>
       </c>
       <c r="S43" t="n">
         <v>137.3211275870676</v>
       </c>
       <c r="T43" t="n">
-        <v>164.5116685314798</v>
+        <v>164.5116685314797</v>
       </c>
       <c r="U43" t="n">
-        <v>230.3442369964132</v>
+        <v>230.3442369964131</v>
       </c>
       <c r="V43" t="n">
         <v>196.25930521207</v>
@@ -3961,7 +3961,7 @@
         <v>230.644660224833</v>
       </c>
       <c r="X43" t="n">
-        <v>169.8313172772792</v>
+        <v>169.8313172772791</v>
       </c>
       <c r="Y43" t="n">
         <v>162.7063152403368</v>
@@ -3977,25 +3977,25 @@
         <v>326.8555035517226</v>
       </c>
       <c r="C44" t="n">
-        <v>309.3945536592495</v>
+        <v>309.3945536592496</v>
       </c>
       <c r="D44" t="n">
-        <v>298.8047035089249</v>
+        <v>298.804703508925</v>
       </c>
       <c r="E44" t="n">
         <v>326.0520319605038</v>
       </c>
       <c r="F44" t="n">
-        <v>350.9977076299534</v>
+        <v>350.9977076299535</v>
       </c>
       <c r="G44" t="n">
-        <v>355.4822157199585</v>
+        <v>355.4822157199586</v>
       </c>
       <c r="H44" t="n">
-        <v>243.2235753561989</v>
+        <v>243.223575356199</v>
       </c>
       <c r="I44" t="n">
-        <v>2.61651500365425</v>
+        <v>2.6165150036543</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>63.30922078858713</v>
+        <v>63.30922078858715</v>
       </c>
       <c r="T44" t="n">
-        <v>149.9606023782086</v>
+        <v>149.9606023782087</v>
       </c>
       <c r="U44" t="n">
         <v>195.151940101405</v>
@@ -4037,10 +4037,10 @@
         <v>271.8739203583769</v>
       </c>
       <c r="W44" t="n">
-        <v>293.362630605655</v>
+        <v>293.3626306056551</v>
       </c>
       <c r="X44" t="n">
-        <v>313.852762566711</v>
+        <v>313.8527625667111</v>
       </c>
       <c r="Y44" t="n">
         <v>330.3596005442956</v>
@@ -4135,25 +4135,25 @@
         <v>123.9536420701793</v>
       </c>
       <c r="C46" t="n">
-        <v>111.3684829868698</v>
+        <v>111.3684829868699</v>
       </c>
       <c r="D46" t="n">
-        <v>92.73713490645434</v>
+        <v>92.73713490645439</v>
       </c>
       <c r="E46" t="n">
-        <v>90.55562453481116</v>
+        <v>90.5556245348112</v>
       </c>
       <c r="F46" t="n">
-        <v>89.54270991117323</v>
+        <v>89.54270991117328</v>
       </c>
       <c r="G46" t="n">
-        <v>110.3443133608394</v>
+        <v>110.3443133608395</v>
       </c>
       <c r="H46" t="n">
-        <v>90.62679191956916</v>
+        <v>90.62679191956921</v>
       </c>
       <c r="I46" t="n">
-        <v>46.39369457523462</v>
+        <v>46.39369457523465</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.90460123386559</v>
+        <v>41.90460123386562</v>
       </c>
       <c r="S46" t="n">
         <v>137.3211275870676</v>
       </c>
       <c r="T46" t="n">
-        <v>164.5116685314797</v>
+        <v>164.5116685314798</v>
       </c>
       <c r="U46" t="n">
-        <v>230.3442369964131</v>
+        <v>230.3442369964132</v>
       </c>
       <c r="V46" t="n">
         <v>196.25930521207</v>
@@ -4198,7 +4198,7 @@
         <v>230.644660224833</v>
       </c>
       <c r="X46" t="n">
-        <v>169.8313172772791</v>
+        <v>169.8313172772792</v>
       </c>
       <c r="Y46" t="n">
         <v>162.7063152403368</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.7186438601369</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C2" t="n">
-        <v>241.7186438601369</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D2" t="n">
-        <v>241.7186438601369</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E2" t="n">
-        <v>241.7186438601369</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H2" t="n">
         <v>31.35113235729608</v>
@@ -4358,22 +4358,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>485.167420504237</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>485.167420504237</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>485.167420504237</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>485.167420504237</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.7186438601369</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>332.4660919952146</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>168.215552771464</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,13 +4413,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
         <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
         <v>781.4136778972854</v>
@@ -4434,25 +4434,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V3" t="n">
-        <v>500.6814290152826</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W3" t="n">
-        <v>500.6814290152826</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X3" t="n">
-        <v>500.6814290152826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y3" t="n">
-        <v>500.6814290152826</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4468,10 +4468,10 @@
         <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
         <v>19.28114311021272</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>467.067986854209</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="C5" t="n">
-        <v>467.067986854209</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="D5" t="n">
-        <v>467.067986854209</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="E5" t="n">
-        <v>467.067986854209</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="F5" t="n">
-        <v>460.1224861050055</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
         <v>31.35113235729608</v>
@@ -4592,25 +4592,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U5" t="n">
-        <v>710.516763498309</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V5" t="n">
-        <v>467.067986854209</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W5" t="n">
-        <v>467.067986854209</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X5" t="n">
-        <v>467.067986854209</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y5" t="n">
-        <v>467.067986854209</v>
+        <v>255.9366034337592</v>
       </c>
     </row>
     <row r="6">
@@ -4653,13 +4653,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W6" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X6" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y6" t="n">
-        <v>49.47235360622864</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4702,28 +4702,28 @@
         <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>383.2490523046881</v>
+        <v>228.6711534226095</v>
       </c>
       <c r="C8" t="n">
-        <v>264.7834769815358</v>
+        <v>228.6711534226095</v>
       </c>
       <c r="D8" t="n">
-        <v>264.7834769815358</v>
+        <v>228.6711534226095</v>
       </c>
       <c r="E8" t="n">
-        <v>264.7834769815358</v>
+        <v>52.75671313626202</v>
       </c>
       <c r="F8" t="n">
-        <v>257.8379762323324</v>
+        <v>45.81121238705855</v>
       </c>
       <c r="G8" t="n">
-        <v>242.3955840938761</v>
+        <v>30.36882024860223</v>
       </c>
       <c r="H8" t="n">
-        <v>242.3955840938761</v>
+        <v>30.36882024860223</v>
       </c>
       <c r="I8" t="n">
         <v>30.36882024860223</v>
@@ -4826,28 +4826,28 @@
         <v>969.7703423957684</v>
       </c>
       <c r="R8" t="n">
-        <v>819.3245181314433</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="S8" t="n">
-        <v>608.5330896398996</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="T8" t="n">
-        <v>383.2490523046881</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="U8" t="n">
-        <v>383.2490523046881</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="V8" t="n">
-        <v>383.2490523046881</v>
+        <v>722.7372794047154</v>
       </c>
       <c r="W8" t="n">
-        <v>383.2490523046881</v>
+        <v>475.7042164136625</v>
       </c>
       <c r="X8" t="n">
-        <v>383.2490523046881</v>
+        <v>228.6711534226095</v>
       </c>
       <c r="Y8" t="n">
-        <v>383.2490523046881</v>
+        <v>228.6711534226095</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>132.8570639765196</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C9" t="n">
-        <v>132.8570639765196</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D9" t="n">
-        <v>132.8570639765196</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E9" t="n">
-        <v>132.8570639765196</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F9" t="n">
-        <v>132.8570639765196</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G9" t="n">
-        <v>132.8570639765196</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H9" t="n">
         <v>19.56501858889139</v>
@@ -4884,19 +4884,19 @@
         <v>19.56501858889139</v>
       </c>
       <c r="K9" t="n">
-        <v>20.23786849471563</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L9" t="n">
-        <v>251.8996143319767</v>
+        <v>251.2267644261524</v>
       </c>
       <c r="M9" t="n">
-        <v>494.0167193695077</v>
+        <v>493.3438694636834</v>
       </c>
       <c r="N9" t="n">
-        <v>736.1338244070387</v>
+        <v>735.4609745012144</v>
       </c>
       <c r="O9" t="n">
-        <v>978.2509294445697</v>
+        <v>977.5780795387454</v>
       </c>
       <c r="P9" t="n">
         <v>978.2509294445697</v>
@@ -4905,28 +4905,28 @@
         <v>978.2509294445697</v>
       </c>
       <c r="R9" t="n">
-        <v>978.2509294445697</v>
+        <v>937.824783143196</v>
       </c>
       <c r="S9" t="n">
-        <v>978.2509294445697</v>
+        <v>937.824783143196</v>
       </c>
       <c r="T9" t="n">
-        <v>951.8363081988171</v>
+        <v>937.824783143196</v>
       </c>
       <c r="U9" t="n">
-        <v>951.8363081988171</v>
+        <v>709.6016900172199</v>
       </c>
       <c r="V9" t="n">
-        <v>716.6841999670744</v>
+        <v>474.4495817854772</v>
       </c>
       <c r="W9" t="n">
-        <v>716.6841999670744</v>
+        <v>227.4165187944242</v>
       </c>
       <c r="X9" t="n">
-        <v>508.8326997615416</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y9" t="n">
-        <v>301.0724009965877</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156.0916735427112</v>
+        <v>135.111059141955</v>
       </c>
       <c r="C10" t="n">
-        <v>156.0916735427112</v>
+        <v>135.111059141955</v>
       </c>
       <c r="D10" t="n">
-        <v>156.0916735427112</v>
+        <v>135.111059141955</v>
       </c>
       <c r="E10" t="n">
-        <v>156.0916735427112</v>
+        <v>135.111059141955</v>
       </c>
       <c r="F10" t="n">
-        <v>156.0916735427112</v>
+        <v>135.111059141955</v>
       </c>
       <c r="G10" t="n">
-        <v>41.28197559507151</v>
+        <v>135.111059141955</v>
       </c>
       <c r="H10" t="n">
-        <v>41.28197559507151</v>
+        <v>135.111059141955</v>
       </c>
       <c r="I10" t="n">
-        <v>41.28197559507151</v>
+        <v>135.111059141955</v>
       </c>
       <c r="J10" t="n">
         <v>41.28197559507151</v>
@@ -4981,31 +4981,31 @@
         <v>156.0916735427112</v>
       </c>
       <c r="Q10" t="n">
-        <v>156.0916735427112</v>
+        <v>135.111059141955</v>
       </c>
       <c r="R10" t="n">
-        <v>156.0916735427112</v>
+        <v>135.111059141955</v>
       </c>
       <c r="S10" t="n">
-        <v>156.0916735427112</v>
+        <v>135.111059141955</v>
       </c>
       <c r="T10" t="n">
-        <v>156.0916735427112</v>
+        <v>135.111059141955</v>
       </c>
       <c r="U10" t="n">
-        <v>156.0916735427112</v>
+        <v>135.111059141955</v>
       </c>
       <c r="V10" t="n">
-        <v>156.0916735427112</v>
+        <v>135.111059141955</v>
       </c>
       <c r="W10" t="n">
-        <v>156.0916735427112</v>
+        <v>135.111059141955</v>
       </c>
       <c r="X10" t="n">
-        <v>156.0916735427112</v>
+        <v>135.111059141955</v>
       </c>
       <c r="Y10" t="n">
-        <v>156.0916735427112</v>
+        <v>135.111059141955</v>
       </c>
     </row>
     <row r="11">
@@ -5027,19 +5027,19 @@
         <v>1283.968408515623</v>
       </c>
       <c r="F11" t="n">
-        <v>872.9825037260149</v>
+        <v>872.9825037260152</v>
       </c>
       <c r="G11" t="n">
-        <v>457.466792784887</v>
+        <v>457.4667927848877</v>
       </c>
       <c r="H11" t="n">
-        <v>155.3436478677589</v>
+        <v>155.3436478677595</v>
       </c>
       <c r="I11" t="n">
-        <v>96.2579376501707</v>
+        <v>96.2579376501706</v>
       </c>
       <c r="J11" t="n">
-        <v>415.670174465644</v>
+        <v>415.6701744656439</v>
       </c>
       <c r="K11" t="n">
         <v>1015.131122619022</v>
@@ -5048,28 +5048,28 @@
         <v>1811.092064308543</v>
       </c>
       <c r="M11" t="n">
-        <v>2377.637741552261</v>
+        <v>2442.696997226509</v>
       </c>
       <c r="N11" t="n">
-        <v>2846.8983617823</v>
+        <v>2911.957617456549</v>
       </c>
       <c r="O11" t="n">
-        <v>3653.664777003639</v>
+        <v>3718.724032677888</v>
       </c>
       <c r="P11" t="n">
-        <v>4304.54686428683</v>
+        <v>4369.606119961079</v>
       </c>
       <c r="Q11" t="n">
-        <v>4716.110445424768</v>
+        <v>4781.169701099016</v>
       </c>
       <c r="R11" t="n">
-        <v>4812.896882508535</v>
+        <v>4812.89688250853</v>
       </c>
       <c r="S11" t="n">
-        <v>4692.505408871823</v>
+        <v>4692.505408871818</v>
       </c>
       <c r="T11" t="n">
-        <v>4484.587287164785</v>
+        <v>4484.587287164781</v>
       </c>
       <c r="U11" t="n">
         <v>4231.021349575727</v>
@@ -5103,34 +5103,34 @@
         <v>648.3674576286003</v>
       </c>
       <c r="E12" t="n">
-        <v>489.1300026231448</v>
+        <v>489.1300026231447</v>
       </c>
       <c r="F12" t="n">
-        <v>342.5954446500298</v>
+        <v>342.5954446500297</v>
       </c>
       <c r="G12" t="n">
-        <v>205.9951790535437</v>
+        <v>205.9951790535436</v>
       </c>
       <c r="H12" t="n">
-        <v>113.2027659419054</v>
+        <v>113.2027659419053</v>
       </c>
       <c r="I12" t="n">
-        <v>96.2579376501707</v>
+        <v>96.2579376501706</v>
       </c>
       <c r="J12" t="n">
-        <v>292.8042980215797</v>
+        <v>292.8042980215796</v>
       </c>
       <c r="K12" t="n">
-        <v>525.105867435979</v>
+        <v>493.5335918123606</v>
       </c>
       <c r="L12" t="n">
-        <v>841.3337156262694</v>
+        <v>841.3337156262692</v>
       </c>
       <c r="M12" t="n">
         <v>1229.713567132605</v>
       </c>
       <c r="N12" t="n">
-        <v>1642.781322563745</v>
+        <v>1642.781322563744</v>
       </c>
       <c r="O12" t="n">
         <v>1998.437824248187</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>346.4529686702958</v>
+        <v>103.2280673675213</v>
       </c>
       <c r="C13" t="n">
-        <v>346.4529686702958</v>
+        <v>103.2280673675212</v>
       </c>
       <c r="D13" t="n">
-        <v>346.4529686702958</v>
+        <v>103.2280673675212</v>
       </c>
       <c r="E13" t="n">
-        <v>346.4529686702958</v>
+        <v>96.2579376501706</v>
       </c>
       <c r="F13" t="n">
-        <v>199.5630211723855</v>
+        <v>96.2579376501706</v>
       </c>
       <c r="G13" t="n">
-        <v>199.5630211723855</v>
+        <v>96.2579376501706</v>
       </c>
       <c r="H13" t="n">
-        <v>199.5630211723855</v>
+        <v>96.2579376501706</v>
       </c>
       <c r="I13" t="n">
-        <v>96.2579376501707</v>
+        <v>96.2579376501706</v>
       </c>
       <c r="J13" t="n">
         <v>127.6029230497554</v>
       </c>
       <c r="K13" t="n">
-        <v>308.9491995738996</v>
+        <v>308.9491995738994</v>
       </c>
       <c r="L13" t="n">
-        <v>596.5364327899956</v>
+        <v>596.5364327899955</v>
       </c>
       <c r="M13" t="n">
         <v>910.1459706053771</v>
@@ -5224,25 +5224,25 @@
         <v>1763.848597348963</v>
       </c>
       <c r="S13" t="n">
-        <v>1763.848597348963</v>
+        <v>1568.697621895604</v>
       </c>
       <c r="T13" t="n">
-        <v>1541.232429022461</v>
+        <v>1346.081453569101</v>
       </c>
       <c r="U13" t="n">
-        <v>1252.118716791985</v>
+        <v>1056.967741338626</v>
       </c>
       <c r="V13" t="n">
-        <v>997.4342285860977</v>
+        <v>802.2832531327389</v>
       </c>
       <c r="W13" t="n">
-        <v>708.0170585491371</v>
+        <v>512.8660830957783</v>
       </c>
       <c r="X13" t="n">
-        <v>708.0170585491371</v>
+        <v>284.876532197761</v>
       </c>
       <c r="Y13" t="n">
-        <v>487.224479405607</v>
+        <v>284.876532197761</v>
       </c>
     </row>
     <row r="14">
@@ -5264,13 +5264,13 @@
         <v>1283.968408515623</v>
       </c>
       <c r="F14" t="n">
-        <v>872.9825037260148</v>
+        <v>872.9825037260152</v>
       </c>
       <c r="G14" t="n">
-        <v>457.466792784887</v>
+        <v>457.4667927848877</v>
       </c>
       <c r="H14" t="n">
-        <v>155.3436478677588</v>
+        <v>155.3436478677595</v>
       </c>
       <c r="I14" t="n">
         <v>96.2579376501706</v>
@@ -5279,19 +5279,19 @@
         <v>415.6701744656439</v>
       </c>
       <c r="K14" t="n">
-        <v>942.009786877796</v>
+        <v>1015.131122619022</v>
       </c>
       <c r="L14" t="n">
-        <v>1737.970728567317</v>
+        <v>1811.092064308543</v>
       </c>
       <c r="M14" t="n">
-        <v>2640.237186924277</v>
+        <v>2377.637741552256</v>
       </c>
       <c r="N14" t="n">
-        <v>3542.471262322181</v>
+        <v>2846.898361782296</v>
       </c>
       <c r="O14" t="n">
-        <v>3972.245498093403</v>
+        <v>3653.664777003635</v>
       </c>
       <c r="P14" t="n">
         <v>4304.546864286825</v>
@@ -5358,25 +5358,25 @@
         <v>292.8042980215796</v>
       </c>
       <c r="K15" t="n">
-        <v>525.105867435979</v>
+        <v>702.5894418396728</v>
       </c>
       <c r="L15" t="n">
-        <v>841.3337156262694</v>
+        <v>1018.817290029963</v>
       </c>
       <c r="M15" t="n">
-        <v>1229.713567132605</v>
+        <v>1407.197141536299</v>
       </c>
       <c r="N15" t="n">
-        <v>1642.781322563745</v>
+        <v>1820.264896967439</v>
       </c>
       <c r="O15" t="n">
-        <v>1998.437824248187</v>
+        <v>2175.921398651881</v>
       </c>
       <c r="P15" t="n">
-        <v>2264.550455837734</v>
+        <v>2442.034030241428</v>
       </c>
       <c r="Q15" t="n">
-        <v>2600.497021141337</v>
+        <v>2570.004080686541</v>
       </c>
       <c r="R15" t="n">
         <v>2600.497021141337</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.2957398200366</v>
+        <v>589.3163442343287</v>
       </c>
       <c r="C16" t="n">
-        <v>394.3595568921297</v>
+        <v>420.3801613064218</v>
       </c>
       <c r="D16" t="n">
-        <v>244.242917479794</v>
+        <v>270.2635218940861</v>
       </c>
       <c r="E16" t="n">
-        <v>244.242917479794</v>
+        <v>270.2635218940861</v>
       </c>
       <c r="F16" t="n">
-        <v>244.242917479794</v>
+        <v>123.3735743961759</v>
       </c>
       <c r="G16" t="n">
-        <v>244.242917479794</v>
+        <v>123.3735743961759</v>
       </c>
       <c r="H16" t="n">
         <v>96.2579376501706</v>
@@ -5434,7 +5434,7 @@
         <v>96.2579376501706</v>
       </c>
       <c r="J16" t="n">
-        <v>127.6029230497553</v>
+        <v>127.6029230497554</v>
       </c>
       <c r="K16" t="n">
         <v>308.9491995738994</v>
@@ -5443,13 +5443,13 @@
         <v>596.5364327899955</v>
       </c>
       <c r="M16" t="n">
-        <v>910.1459706053773</v>
+        <v>910.1459706053771</v>
       </c>
       <c r="N16" t="n">
         <v>1221.733190985145</v>
       </c>
       <c r="O16" t="n">
-        <v>1493.51812534439</v>
+        <v>1493.518125344389</v>
       </c>
       <c r="P16" t="n">
         <v>1702.556406758124</v>
@@ -5461,25 +5461,25 @@
         <v>1763.848597348963</v>
       </c>
       <c r="S16" t="n">
-        <v>1624.500661191378</v>
+        <v>1763.848597348963</v>
       </c>
       <c r="T16" t="n">
-        <v>1624.500661191378</v>
+        <v>1763.848597348963</v>
       </c>
       <c r="U16" t="n">
-        <v>1335.386948960901</v>
+        <v>1763.848597348963</v>
       </c>
       <c r="V16" t="n">
-        <v>1080.702460755014</v>
+        <v>1509.164109143077</v>
       </c>
       <c r="W16" t="n">
-        <v>791.2852907180539</v>
+        <v>1219.746939106116</v>
       </c>
       <c r="X16" t="n">
-        <v>563.2957398200366</v>
+        <v>991.7573882080985</v>
       </c>
       <c r="Y16" t="n">
-        <v>563.2957398200366</v>
+        <v>770.9648090645684</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2396.984876661028</v>
+        <v>2396.984876661029</v>
       </c>
       <c r="C17" t="n">
-        <v>2028.022359720617</v>
+        <v>2028.022359720618</v>
       </c>
       <c r="D17" t="n">
         <v>1669.756661113867</v>
@@ -5501,40 +5501,40 @@
         <v>1283.968408515623</v>
       </c>
       <c r="F17" t="n">
-        <v>872.9825037260152</v>
+        <v>872.9825037260155</v>
       </c>
       <c r="G17" t="n">
-        <v>457.4667927848877</v>
+        <v>457.466792784887</v>
       </c>
       <c r="H17" t="n">
-        <v>155.3436478677595</v>
+        <v>155.3436478677588</v>
       </c>
       <c r="I17" t="n">
         <v>96.2579376501706</v>
       </c>
       <c r="J17" t="n">
-        <v>248.2645254452909</v>
+        <v>415.6701744656439</v>
       </c>
       <c r="K17" t="n">
-        <v>526.8215151532158</v>
+        <v>1015.131122619022</v>
       </c>
       <c r="L17" t="n">
-        <v>1322.782456842736</v>
+        <v>1811.092064308543</v>
       </c>
       <c r="M17" t="n">
-        <v>2225.048915199697</v>
+        <v>2268.340124507599</v>
       </c>
       <c r="N17" t="n">
-        <v>3127.282990597601</v>
+        <v>2846.898361782296</v>
       </c>
       <c r="O17" t="n">
-        <v>3718.724032677888</v>
+        <v>3653.664777003635</v>
       </c>
       <c r="P17" t="n">
-        <v>4369.606119961079</v>
+        <v>4304.546864286825</v>
       </c>
       <c r="Q17" t="n">
-        <v>4781.169701099016</v>
+        <v>4716.110445424763</v>
       </c>
       <c r="R17" t="n">
         <v>4812.89688250853</v>
@@ -5595,25 +5595,25 @@
         <v>292.8042980215796</v>
       </c>
       <c r="K18" t="n">
-        <v>493.5335918123605</v>
+        <v>493.5335918123606</v>
       </c>
       <c r="L18" t="n">
-        <v>809.7614400026509</v>
+        <v>809.7614400026511</v>
       </c>
       <c r="M18" t="n">
-        <v>1199.220626677809</v>
+        <v>1229.713567132605</v>
       </c>
       <c r="N18" t="n">
-        <v>1612.288382108949</v>
+        <v>1642.781322563744</v>
       </c>
       <c r="O18" t="n">
-        <v>1967.944883793391</v>
+        <v>1998.437824248187</v>
       </c>
       <c r="P18" t="n">
-        <v>2234.057515382938</v>
+        <v>2264.550455837734</v>
       </c>
       <c r="Q18" t="n">
-        <v>2570.004080686541</v>
+        <v>2600.497021141337</v>
       </c>
       <c r="R18" t="n">
         <v>2600.497021141337</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>347.5480010020088</v>
+        <v>96.2579376501706</v>
       </c>
       <c r="C19" t="n">
-        <v>347.5480010020088</v>
+        <v>96.2579376501706</v>
       </c>
       <c r="D19" t="n">
-        <v>347.5480010020088</v>
+        <v>96.2579376501706</v>
       </c>
       <c r="E19" t="n">
-        <v>347.5480010020088</v>
+        <v>96.2579376501706</v>
       </c>
       <c r="F19" t="n">
-        <v>347.5480010020088</v>
+        <v>96.2579376501706</v>
       </c>
       <c r="G19" t="n">
-        <v>347.5480010020088</v>
+        <v>96.2579376501706</v>
       </c>
       <c r="H19" t="n">
-        <v>199.5630211723854</v>
+        <v>96.2579376501706</v>
       </c>
       <c r="I19" t="n">
         <v>96.2579376501706</v>
       </c>
       <c r="J19" t="n">
-        <v>127.6029230497553</v>
+        <v>127.6029230497554</v>
       </c>
       <c r="K19" t="n">
-        <v>308.9491995738995</v>
+        <v>308.9491995738994</v>
       </c>
       <c r="L19" t="n">
-        <v>596.5364327899954</v>
+        <v>596.5364327899955</v>
       </c>
       <c r="M19" t="n">
         <v>910.145970605377</v>
@@ -5701,22 +5701,22 @@
         <v>1469.926976091944</v>
       </c>
       <c r="T19" t="n">
-        <v>1247.310807765441</v>
+        <v>1378.255438165042</v>
       </c>
       <c r="U19" t="n">
-        <v>958.1970955349652</v>
+        <v>1089.141725934566</v>
       </c>
       <c r="V19" t="n">
-        <v>703.5126073290784</v>
+        <v>834.4572377286786</v>
       </c>
       <c r="W19" t="n">
-        <v>703.5126073290784</v>
+        <v>545.040067691718</v>
       </c>
       <c r="X19" t="n">
-        <v>475.523056431061</v>
+        <v>317.0505167937007</v>
       </c>
       <c r="Y19" t="n">
-        <v>347.5480010020088</v>
+        <v>96.2579376501706</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2396.984876661029</v>
+        <v>2396.984876661028</v>
       </c>
       <c r="C20" t="n">
         <v>2028.022359720617</v>
@@ -5735,16 +5735,16 @@
         <v>1669.756661113867</v>
       </c>
       <c r="E20" t="n">
-        <v>1283.968408515622</v>
+        <v>1283.968408515623</v>
       </c>
       <c r="F20" t="n">
-        <v>872.9825037260148</v>
+        <v>872.9825037260152</v>
       </c>
       <c r="G20" t="n">
-        <v>457.466792784887</v>
+        <v>457.4667927848877</v>
       </c>
       <c r="H20" t="n">
-        <v>155.3436478677588</v>
+        <v>155.3436478677595</v>
       </c>
       <c r="I20" t="n">
         <v>96.2579376501706</v>
@@ -5753,10 +5753,10 @@
         <v>415.6701744656439</v>
       </c>
       <c r="K20" t="n">
-        <v>694.2271641735688</v>
+        <v>694.2271641735689</v>
       </c>
       <c r="L20" t="n">
-        <v>1490.188105863089</v>
+        <v>1490.18810586309</v>
       </c>
       <c r="M20" t="n">
         <v>2392.45456422005</v>
@@ -5786,16 +5786,16 @@
         <v>4231.021349575727</v>
       </c>
       <c r="V20" t="n">
-        <v>3899.958462232157</v>
+        <v>3899.958462232156</v>
       </c>
       <c r="W20" t="n">
         <v>3547.189806962042</v>
       </c>
       <c r="X20" t="n">
-        <v>3173.724048700963</v>
+        <v>3173.724048700962</v>
       </c>
       <c r="Y20" t="n">
-        <v>2783.584716725151</v>
+        <v>2783.58471672515</v>
       </c>
     </row>
     <row r="21">
@@ -5832,16 +5832,16 @@
         <v>292.8042980215796</v>
       </c>
       <c r="K21" t="n">
-        <v>494.6129269811829</v>
+        <v>493.5335918123606</v>
       </c>
       <c r="L21" t="n">
-        <v>810.8407751714733</v>
+        <v>810.8407751714731</v>
       </c>
       <c r="M21" t="n">
         <v>1199.220626677809</v>
       </c>
       <c r="N21" t="n">
-        <v>1612.288382108949</v>
+        <v>1612.288382108948</v>
       </c>
       <c r="O21" t="n">
         <v>1967.944883793391</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>96.2579376501707</v>
+        <v>982.4155850787834</v>
       </c>
       <c r="C22" t="n">
-        <v>96.25793765017067</v>
+        <v>813.4794021508765</v>
       </c>
       <c r="D22" t="n">
-        <v>96.25793765017067</v>
+        <v>663.3627627385407</v>
       </c>
       <c r="E22" t="n">
-        <v>96.25793765017067</v>
+        <v>515.4496691561476</v>
       </c>
       <c r="F22" t="n">
-        <v>96.2579376501706</v>
+        <v>515.4496691561477</v>
       </c>
       <c r="G22" t="n">
-        <v>96.2579376501706</v>
+        <v>347.5480010020088</v>
       </c>
       <c r="H22" t="n">
-        <v>96.2579376501706</v>
+        <v>199.5630211723854</v>
       </c>
       <c r="I22" t="n">
         <v>96.2579376501706</v>
       </c>
       <c r="J22" t="n">
-        <v>127.6029230497553</v>
+        <v>127.6029230497554</v>
       </c>
       <c r="K22" t="n">
         <v>308.9491995738994</v>
       </c>
       <c r="L22" t="n">
-        <v>596.5364327899954</v>
+        <v>596.5364327899953</v>
       </c>
       <c r="M22" t="n">
-        <v>910.1459706053771</v>
+        <v>910.1459706053769</v>
       </c>
       <c r="N22" t="n">
         <v>1221.733190985145</v>
@@ -5935,25 +5935,25 @@
         <v>1763.848597348963</v>
       </c>
       <c r="S22" t="n">
-        <v>1600.871606491544</v>
+        <v>1763.848597348963</v>
       </c>
       <c r="T22" t="n">
-        <v>1378.255438165041</v>
+        <v>1763.848597348963</v>
       </c>
       <c r="U22" t="n">
-        <v>1089.141725934566</v>
+        <v>1763.848597348963</v>
       </c>
       <c r="V22" t="n">
-        <v>834.4572377286787</v>
+        <v>1763.848597348963</v>
       </c>
       <c r="W22" t="n">
-        <v>545.0400676917181</v>
+        <v>1474.431427312002</v>
       </c>
       <c r="X22" t="n">
-        <v>317.0505167937008</v>
+        <v>1246.441876413985</v>
       </c>
       <c r="Y22" t="n">
-        <v>96.2579376501707</v>
+        <v>1164.064049909023</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2396.984876661028</v>
       </c>
       <c r="C23" t="n">
-        <v>2028.022359720616</v>
+        <v>2028.022359720617</v>
       </c>
       <c r="D23" t="n">
         <v>1669.756661113866</v>
@@ -5975,7 +5975,7 @@
         <v>1283.968408515622</v>
       </c>
       <c r="F23" t="n">
-        <v>872.9825037260143</v>
+        <v>872.9825037260146</v>
       </c>
       <c r="G23" t="n">
         <v>457.4667927848868</v>
@@ -5990,46 +5990,46 @@
         <v>415.6701744656439</v>
       </c>
       <c r="K23" t="n">
-        <v>694.2271641735688</v>
+        <v>1015.131122619022</v>
       </c>
       <c r="L23" t="n">
-        <v>1490.188105863089</v>
+        <v>1811.092064308543</v>
       </c>
       <c r="M23" t="n">
-        <v>2392.45456422005</v>
+        <v>2268.340124507599</v>
       </c>
       <c r="N23" t="n">
-        <v>3294.688639617954</v>
+        <v>2911.957617456549</v>
       </c>
       <c r="O23" t="n">
-        <v>4101.455054839293</v>
+        <v>3718.724032677888</v>
       </c>
       <c r="P23" t="n">
-        <v>4433.756421032715</v>
+        <v>4369.606119961079</v>
       </c>
       <c r="Q23" t="n">
-        <v>4716.110445424763</v>
+        <v>4781.169701099016</v>
       </c>
       <c r="R23" t="n">
         <v>4812.89688250853</v>
       </c>
       <c r="S23" t="n">
-        <v>4692.505408871817</v>
+        <v>4692.505408871818</v>
       </c>
       <c r="T23" t="n">
-        <v>4484.58728716478</v>
+        <v>4484.587287164781</v>
       </c>
       <c r="U23" t="n">
-        <v>4231.021349575726</v>
+        <v>4231.021349575727</v>
       </c>
       <c r="V23" t="n">
-        <v>3899.958462232155</v>
+        <v>3899.958462232157</v>
       </c>
       <c r="W23" t="n">
-        <v>3547.189806962041</v>
+        <v>3547.189806962042</v>
       </c>
       <c r="X23" t="n">
-        <v>3173.724048700961</v>
+        <v>3173.724048700962</v>
       </c>
       <c r="Y23" t="n">
         <v>2783.58471672515</v>
@@ -6069,25 +6069,25 @@
         <v>292.8042980215796</v>
       </c>
       <c r="K24" t="n">
-        <v>525.105867435979</v>
+        <v>702.5894418396728</v>
       </c>
       <c r="L24" t="n">
-        <v>841.3337156262694</v>
+        <v>1018.817290029963</v>
       </c>
       <c r="M24" t="n">
-        <v>1229.713567132605</v>
+        <v>1407.197141536299</v>
       </c>
       <c r="N24" t="n">
-        <v>1642.781322563745</v>
+        <v>1820.264896967439</v>
       </c>
       <c r="O24" t="n">
-        <v>1998.437824248187</v>
+        <v>2175.921398651881</v>
       </c>
       <c r="P24" t="n">
-        <v>2264.550455837734</v>
+        <v>2442.034030241428</v>
       </c>
       <c r="Q24" t="n">
-        <v>2600.497021141337</v>
+        <v>2570.004080686541</v>
       </c>
       <c r="R24" t="n">
         <v>2600.497021141337</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.25793765017056</v>
+        <v>96.25793765017048</v>
       </c>
       <c r="C25" t="n">
-        <v>96.25793765017056</v>
+        <v>96.2579376501706</v>
       </c>
       <c r="D25" t="n">
         <v>96.2579376501706</v>
@@ -6133,34 +6133,34 @@
         <v>96.2579376501706</v>
       </c>
       <c r="F25" t="n">
-        <v>96.2579376501706</v>
+        <v>96.2579376501707</v>
       </c>
       <c r="G25" t="n">
-        <v>96.2579376501706</v>
+        <v>96.2579376501707</v>
       </c>
       <c r="H25" t="n">
-        <v>96.2579376501706</v>
+        <v>96.2579376501707</v>
       </c>
       <c r="I25" t="n">
-        <v>96.2579376501706</v>
+        <v>96.2579376501707</v>
       </c>
       <c r="J25" t="n">
-        <v>127.6029230497553</v>
+        <v>127.6029230497555</v>
       </c>
       <c r="K25" t="n">
-        <v>308.9491995738994</v>
+        <v>308.9491995738995</v>
       </c>
       <c r="L25" t="n">
-        <v>596.5364327899954</v>
+        <v>596.5364327899956</v>
       </c>
       <c r="M25" t="n">
-        <v>910.145970605377</v>
+        <v>910.1459706053772</v>
       </c>
       <c r="N25" t="n">
         <v>1221.733190985145</v>
       </c>
       <c r="O25" t="n">
-        <v>1493.518125344389</v>
+        <v>1493.51812534439</v>
       </c>
       <c r="P25" t="n">
         <v>1702.556406758124</v>
@@ -6169,28 +6169,28 @@
         <v>1763.848597348963</v>
       </c>
       <c r="R25" t="n">
-        <v>1665.077951545303</v>
+        <v>1763.848597348963</v>
       </c>
       <c r="S25" t="n">
-        <v>1469.926976091944</v>
+        <v>1568.697621895604</v>
       </c>
       <c r="T25" t="n">
-        <v>1270.486732958321</v>
+        <v>1378.255438165041</v>
       </c>
       <c r="U25" t="n">
-        <v>981.3730207278446</v>
+        <v>1089.141725934565</v>
       </c>
       <c r="V25" t="n">
-        <v>726.6885325219578</v>
+        <v>834.4572377286785</v>
       </c>
       <c r="W25" t="n">
-        <v>726.6885325219578</v>
+        <v>545.0400676917179</v>
       </c>
       <c r="X25" t="n">
-        <v>498.6989816239404</v>
+        <v>317.0505167937006</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.9064024804103</v>
+        <v>96.25793765017048</v>
       </c>
     </row>
     <row r="26">
@@ -6224,25 +6224,25 @@
         <v>96.2579376501706</v>
       </c>
       <c r="J26" t="n">
-        <v>248.2645254452909</v>
+        <v>415.6701744656439</v>
       </c>
       <c r="K26" t="n">
-        <v>847.7254735986689</v>
+        <v>1015.131122619022</v>
       </c>
       <c r="L26" t="n">
-        <v>1643.686415288189</v>
+        <v>1750.622379622854</v>
       </c>
       <c r="M26" t="n">
-        <v>2100.934475487246</v>
+        <v>2652.888837979815</v>
       </c>
       <c r="N26" t="n">
-        <v>3003.16855088515</v>
+        <v>3122.149458209854</v>
       </c>
       <c r="O26" t="n">
-        <v>3809.934966106489</v>
+        <v>3928.915873431194</v>
       </c>
       <c r="P26" t="n">
-        <v>4369.606119961079</v>
+        <v>4579.797960714384</v>
       </c>
       <c r="Q26" t="n">
         <v>4781.169701099016</v>
@@ -6306,25 +6306,25 @@
         <v>292.8042980215796</v>
       </c>
       <c r="K27" t="n">
-        <v>494.6129269811829</v>
+        <v>493.5335918123606</v>
       </c>
       <c r="L27" t="n">
-        <v>810.8407751714733</v>
+        <v>841.3337156262692</v>
       </c>
       <c r="M27" t="n">
-        <v>1199.220626677809</v>
+        <v>1229.713567132605</v>
       </c>
       <c r="N27" t="n">
-        <v>1612.288382108949</v>
+        <v>1642.781322563744</v>
       </c>
       <c r="O27" t="n">
-        <v>1967.944883793391</v>
+        <v>1998.437824248187</v>
       </c>
       <c r="P27" t="n">
-        <v>2234.057515382938</v>
+        <v>2264.550455837734</v>
       </c>
       <c r="Q27" t="n">
-        <v>2570.004080686541</v>
+        <v>2600.497021141337</v>
       </c>
       <c r="R27" t="n">
         <v>2600.497021141337</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1032.823767490543</v>
+        <v>96.25793765017059</v>
       </c>
       <c r="C28" t="n">
-        <v>863.8875845626361</v>
+        <v>96.2579376501706</v>
       </c>
       <c r="D28" t="n">
-        <v>713.7709451503003</v>
+        <v>96.2579376501706</v>
       </c>
       <c r="E28" t="n">
-        <v>565.8578515679072</v>
+        <v>96.2579376501706</v>
       </c>
       <c r="F28" t="n">
-        <v>418.9679040699968</v>
+        <v>96.2579376501706</v>
       </c>
       <c r="G28" t="n">
-        <v>251.066235915858</v>
+        <v>96.2579376501706</v>
       </c>
       <c r="H28" t="n">
-        <v>199.5630211723854</v>
+        <v>96.2579376501706</v>
       </c>
       <c r="I28" t="n">
         <v>96.2579376501706</v>
       </c>
       <c r="J28" t="n">
-        <v>127.6029230497553</v>
+        <v>127.6029230497554</v>
       </c>
       <c r="K28" t="n">
-        <v>308.9491995738994</v>
+        <v>308.9491995738995</v>
       </c>
       <c r="L28" t="n">
-        <v>596.5364327899955</v>
+        <v>596.5364327899956</v>
       </c>
       <c r="M28" t="n">
-        <v>910.145970605377</v>
+        <v>910.1459706053771</v>
       </c>
       <c r="N28" t="n">
         <v>1221.733190985145</v>
@@ -6406,28 +6406,28 @@
         <v>1763.848597348963</v>
       </c>
       <c r="R28" t="n">
-        <v>1665.077951545303</v>
+        <v>1763.848597348963</v>
       </c>
       <c r="S28" t="n">
-        <v>1665.077951545303</v>
+        <v>1568.697621895604</v>
       </c>
       <c r="T28" t="n">
-        <v>1442.4617832188</v>
+        <v>1346.081453569101</v>
       </c>
       <c r="U28" t="n">
-        <v>1442.4617832188</v>
+        <v>1056.967741338625</v>
       </c>
       <c r="V28" t="n">
-        <v>1442.4617832188</v>
+        <v>802.2832531327384</v>
       </c>
       <c r="W28" t="n">
-        <v>1442.4617832188</v>
+        <v>512.8660830957779</v>
       </c>
       <c r="X28" t="n">
-        <v>1214.472232320783</v>
+        <v>498.6989816239404</v>
       </c>
       <c r="Y28" t="n">
-        <v>1214.472232320783</v>
+        <v>277.9064024804103</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2396.984876661029</v>
+        <v>2396.984876661028</v>
       </c>
       <c r="C29" t="n">
         <v>2028.022359720617</v>
@@ -6446,13 +6446,13 @@
         <v>1669.756661113867</v>
       </c>
       <c r="E29" t="n">
-        <v>1283.968408515622</v>
+        <v>1283.968408515623</v>
       </c>
       <c r="F29" t="n">
-        <v>872.9825037260148</v>
+        <v>872.9825037260152</v>
       </c>
       <c r="G29" t="n">
-        <v>457.466792784887</v>
+        <v>457.4667927848877</v>
       </c>
       <c r="H29" t="n">
         <v>155.3436478677588</v>
@@ -6467,7 +6467,7 @@
         <v>1015.131122619022</v>
       </c>
       <c r="L29" t="n">
-        <v>1475.371283195295</v>
+        <v>1811.092064308543</v>
       </c>
       <c r="M29" t="n">
         <v>2377.637741552256</v>
@@ -6497,16 +6497,16 @@
         <v>4231.021349575727</v>
       </c>
       <c r="V29" t="n">
-        <v>3899.958462232157</v>
+        <v>3899.958462232156</v>
       </c>
       <c r="W29" t="n">
         <v>3547.189806962042</v>
       </c>
       <c r="X29" t="n">
-        <v>3173.724048700963</v>
+        <v>3173.724048700962</v>
       </c>
       <c r="Y29" t="n">
-        <v>2783.584716725151</v>
+        <v>2783.58471672515</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>292.8042980215796</v>
       </c>
       <c r="K30" t="n">
-        <v>494.6129269811829</v>
+        <v>493.5335918123606</v>
       </c>
       <c r="L30" t="n">
-        <v>810.8407751714733</v>
+        <v>809.7614400026511</v>
       </c>
       <c r="M30" t="n">
-        <v>1199.220626677809</v>
+        <v>1198.141291508987</v>
       </c>
       <c r="N30" t="n">
-        <v>1612.288382108949</v>
+        <v>1611.209046940126</v>
       </c>
       <c r="O30" t="n">
-        <v>1967.944883793391</v>
+        <v>1998.437824248187</v>
       </c>
       <c r="P30" t="n">
-        <v>2234.057515382938</v>
+        <v>2264.550455837734</v>
       </c>
       <c r="Q30" t="n">
-        <v>2570.004080686541</v>
+        <v>2600.497021141337</v>
       </c>
       <c r="R30" t="n">
         <v>2600.497021141337</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.25793765017056</v>
+        <v>96.2579376501706</v>
       </c>
       <c r="C31" t="n">
-        <v>96.25793765017056</v>
+        <v>96.2579376501706</v>
       </c>
       <c r="D31" t="n">
-        <v>96.25793765017056</v>
+        <v>96.2579376501706</v>
       </c>
       <c r="E31" t="n">
-        <v>96.25793765017056</v>
+        <v>96.2579376501706</v>
       </c>
       <c r="F31" t="n">
         <v>96.2579376501706</v>
@@ -6619,19 +6619,19 @@
         <v>96.2579376501706</v>
       </c>
       <c r="J31" t="n">
-        <v>127.6029230497552</v>
+        <v>127.602923049755</v>
       </c>
       <c r="K31" t="n">
-        <v>308.9491995738994</v>
+        <v>308.949199573899</v>
       </c>
       <c r="L31" t="n">
-        <v>596.5364327899954</v>
+        <v>596.536432789995</v>
       </c>
       <c r="M31" t="n">
-        <v>910.1459706053769</v>
+        <v>910.1459706053766</v>
       </c>
       <c r="N31" t="n">
-        <v>1221.733190985145</v>
+        <v>1221.733190985144</v>
       </c>
       <c r="O31" t="n">
         <v>1493.518125344389</v>
@@ -6649,22 +6649,22 @@
         <v>1568.697621895604</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.903902995281</v>
+        <v>1346.081453569101</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.790190764805</v>
+        <v>1056.967741338626</v>
       </c>
       <c r="V31" t="n">
-        <v>1016.105702558918</v>
+        <v>802.2832531327387</v>
       </c>
       <c r="W31" t="n">
-        <v>726.6885325219578</v>
+        <v>512.8660830957781</v>
       </c>
       <c r="X31" t="n">
-        <v>498.6989816239404</v>
+        <v>284.8765321977608</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.9064024804103</v>
+        <v>96.2579376501706</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2396.70100118235</v>
+        <v>2382.791102727095</v>
       </c>
       <c r="C32" t="n">
-        <v>2027.738484241938</v>
+        <v>2013.828585786683</v>
       </c>
       <c r="D32" t="n">
-        <v>1669.472785635188</v>
+        <v>1655.562887179933</v>
       </c>
       <c r="E32" t="n">
-        <v>1283.684533036944</v>
+        <v>1269.774634581688</v>
       </c>
       <c r="F32" t="n">
-        <v>872.698628247336</v>
+        <v>858.7887297920809</v>
       </c>
       <c r="G32" t="n">
-        <v>457.1829173062083</v>
+        <v>443.2730188509531</v>
       </c>
       <c r="H32" t="n">
-        <v>155.0597723890801</v>
+        <v>141.1498739338248</v>
       </c>
       <c r="I32" t="n">
         <v>95.97406217149194</v>
@@ -6701,25 +6701,25 @@
         <v>415.3862989869652</v>
       </c>
       <c r="K32" t="n">
-        <v>1014.847247140343</v>
+        <v>693.9432886948903</v>
       </c>
       <c r="L32" t="n">
-        <v>1810.808188829864</v>
+        <v>1489.904230384411</v>
       </c>
       <c r="M32" t="n">
-        <v>2713.074647186825</v>
+        <v>2392.170688741372</v>
       </c>
       <c r="N32" t="n">
-        <v>3274.756022972733</v>
+        <v>3294.404764139275</v>
       </c>
       <c r="O32" t="n">
-        <v>3704.530258743954</v>
+        <v>3724.178999910497</v>
       </c>
       <c r="P32" t="n">
-        <v>4355.412346027145</v>
+        <v>4290.353090352892</v>
       </c>
       <c r="Q32" t="n">
-        <v>4766.975927165083</v>
+        <v>4701.91667149083</v>
       </c>
       <c r="R32" t="n">
         <v>4798.703108574597</v>
@@ -6777,28 +6777,28 @@
         <v>95.97406217149194</v>
       </c>
       <c r="J33" t="n">
-        <v>292.5204225429009</v>
+        <v>292.520422542901</v>
       </c>
       <c r="K33" t="n">
-        <v>493.2497163336818</v>
+        <v>493.2497163336819</v>
       </c>
       <c r="L33" t="n">
-        <v>809.4775645239722</v>
+        <v>809.4775645239724</v>
       </c>
       <c r="M33" t="n">
         <v>1197.857416030308</v>
       </c>
       <c r="N33" t="n">
-        <v>1610.925171461447</v>
+        <v>1610.925171461448</v>
       </c>
       <c r="O33" t="n">
         <v>1966.58167314589</v>
       </c>
       <c r="P33" t="n">
-        <v>2233.773639904259</v>
+        <v>2264.266580359055</v>
       </c>
       <c r="Q33" t="n">
-        <v>2569.720205207863</v>
+        <v>2600.213145662659</v>
       </c>
       <c r="R33" t="n">
         <v>2600.213145662659</v>
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>704.2032994042554</v>
+        <v>950.0851780010966</v>
       </c>
       <c r="C34" t="n">
-        <v>560.8294706330512</v>
+        <v>806.7113492298922</v>
       </c>
       <c r="D34" t="n">
-        <v>560.8294706330512</v>
+        <v>682.1570639742591</v>
       </c>
       <c r="E34" t="n">
-        <v>438.4787312073607</v>
+        <v>559.8063245485687</v>
       </c>
       <c r="F34" t="n">
-        <v>438.4787312073607</v>
+        <v>438.4787312073611</v>
       </c>
       <c r="G34" t="n">
-        <v>296.1394172099247</v>
+        <v>296.1394172099249</v>
       </c>
       <c r="H34" t="n">
-        <v>173.716791537004</v>
+        <v>173.7167915370041</v>
       </c>
       <c r="I34" t="n">
         <v>95.97406217149194</v>
       </c>
       <c r="J34" t="n">
-        <v>152.372710880061</v>
+        <v>152.3727108800608</v>
       </c>
       <c r="K34" t="n">
-        <v>358.7726507131894</v>
+        <v>358.7726507131891</v>
       </c>
       <c r="L34" t="n">
-        <v>671.4135472382698</v>
+        <v>671.4135472382694</v>
       </c>
       <c r="M34" t="n">
-        <v>1010.076748362636</v>
+        <v>1010.076748362635</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.717632051388</v>
+        <v>1346.717632051387</v>
       </c>
       <c r="O34" t="n">
-        <v>1643.556229719617</v>
+        <v>1643.556229719616</v>
       </c>
       <c r="P34" t="n">
         <v>1877.648174442335</v>
@@ -6880,28 +6880,28 @@
         <v>1963.994028342159</v>
       </c>
       <c r="R34" t="n">
-        <v>1890.785736695202</v>
+        <v>1890.785736695201</v>
       </c>
       <c r="S34" t="n">
-        <v>1721.197115398545</v>
+        <v>1721.197115398544</v>
       </c>
       <c r="T34" t="n">
-        <v>1524.143301228745</v>
+        <v>1524.143301228744</v>
       </c>
       <c r="U34" t="n">
-        <v>1260.591943154973</v>
+        <v>1524.143301228744</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.591943154973</v>
+        <v>1524.143301228744</v>
       </c>
       <c r="W34" t="n">
-        <v>1257.946831805934</v>
+        <v>1503.828710402776</v>
       </c>
       <c r="X34" t="n">
-        <v>1055.51963506462</v>
+        <v>1301.401513661461</v>
       </c>
       <c r="Y34" t="n">
-        <v>860.2894100777924</v>
+        <v>1106.171288674634</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6911,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1984.607118590334</v>
+        <v>1984.607118590335</v>
       </c>
       <c r="C35" t="n">
-        <v>1672.087367419375</v>
+        <v>1672.087367419376</v>
       </c>
       <c r="D35" t="n">
-        <v>1370.264434582077</v>
+        <v>1370.264434582078</v>
       </c>
       <c r="E35" t="n">
-        <v>1040.918947753285</v>
+        <v>1040.918947753286</v>
       </c>
       <c r="F35" t="n">
-        <v>686.37580873313</v>
+        <v>686.3758087331307</v>
       </c>
       <c r="G35" t="n">
-        <v>327.3028635614556</v>
+        <v>327.3028635614557</v>
       </c>
       <c r="H35" t="n">
-        <v>81.62248441377999</v>
+        <v>81.62248441377996</v>
       </c>
       <c r="I35" t="n">
         <v>78.97953996564432</v>
       </c>
       <c r="J35" t="n">
-        <v>398.3917767811176</v>
+        <v>230.9861277607646</v>
       </c>
       <c r="K35" t="n">
-        <v>701.7663458097338</v>
+        <v>509.5431174686896</v>
       </c>
       <c r="L35" t="n">
-        <v>1084.242685094308</v>
+        <v>892.0194567532642</v>
       </c>
       <c r="M35" t="n">
-        <v>1986.509143451269</v>
+        <v>1794.285915110225</v>
       </c>
       <c r="N35" t="n">
-        <v>2888.743218849173</v>
+        <v>2696.519990508129</v>
       </c>
       <c r="O35" t="n">
-        <v>3318.517454620394</v>
+        <v>3126.29422627935</v>
       </c>
       <c r="P35" t="n">
-        <v>3650.818820813817</v>
+        <v>3458.595592472773</v>
       </c>
       <c r="Q35" t="n">
         <v>3852.190561198449</v>
@@ -6962,10 +6962,10 @@
         <v>3948.976998282216</v>
       </c>
       <c r="S35" t="n">
-        <v>3885.028290414955</v>
+        <v>3885.028290414957</v>
       </c>
       <c r="T35" t="n">
-        <v>3733.552934477371</v>
+        <v>3733.552934477372</v>
       </c>
       <c r="U35" t="n">
         <v>3536.42976265777</v>
@@ -6977,10 +6977,10 @@
         <v>2965.48375158299</v>
       </c>
       <c r="X35" t="n">
-        <v>2648.460759091362</v>
+        <v>2648.460759091363</v>
       </c>
       <c r="Y35" t="n">
-        <v>2314.764192885003</v>
+        <v>2314.764192885004</v>
       </c>
     </row>
     <row r="36">
@@ -7017,7 +7017,7 @@
         <v>275.5259003370533</v>
       </c>
       <c r="K36" t="n">
-        <v>476.2551941278342</v>
+        <v>476.2551941278343</v>
       </c>
       <c r="L36" t="n">
         <v>792.4830423181247</v>
@@ -7026,10 +7026,10 @@
         <v>1180.86289382446</v>
       </c>
       <c r="N36" t="n">
-        <v>1593.9306492556</v>
+        <v>1625.502924879218</v>
       </c>
       <c r="O36" t="n">
-        <v>1949.587150940042</v>
+        <v>1981.159426563661</v>
       </c>
       <c r="P36" t="n">
         <v>2247.272058153208</v>
@@ -7075,19 +7075,19 @@
         <v>604.4343573475454</v>
       </c>
       <c r="D37" t="n">
-        <v>510.7604837046621</v>
+        <v>510.7604837046622</v>
       </c>
       <c r="E37" t="n">
-        <v>419.2901558917215</v>
+        <v>419.2901558917217</v>
       </c>
       <c r="F37" t="n">
-        <v>328.8429741632636</v>
+        <v>328.8429741632638</v>
       </c>
       <c r="G37" t="n">
-        <v>217.3840717785772</v>
+        <v>217.3840717785775</v>
       </c>
       <c r="H37" t="n">
-        <v>125.8418577184063</v>
+        <v>125.8418577184066</v>
       </c>
       <c r="I37" t="n">
         <v>78.97953996564432</v>
@@ -7099,7 +7099,7 @@
         <v>402.3099113506539</v>
       </c>
       <c r="L37" t="n">
-        <v>745.2166992973903</v>
+        <v>745.2166992973904</v>
       </c>
       <c r="M37" t="n">
         <v>1114.145791843412</v>
@@ -7120,7 +7120,7 @@
         <v>2146.798757475352</v>
       </c>
       <c r="S37" t="n">
-        <v>2008.090547791446</v>
+        <v>2008.090547791445</v>
       </c>
       <c r="T37" t="n">
         <v>1841.917145234395</v>
@@ -7129,13 +7129,13 @@
         <v>1609.246198773372</v>
       </c>
       <c r="V37" t="n">
-        <v>1411.004476336938</v>
+        <v>1411.004476336937</v>
       </c>
       <c r="W37" t="n">
         <v>1178.030072069429</v>
       </c>
       <c r="X37" t="n">
-        <v>1006.483286940865</v>
+        <v>1006.483286940864</v>
       </c>
       <c r="Y37" t="n">
         <v>842.1334735667871</v>
@@ -7166,43 +7166,43 @@
         <v>327.3028635614555</v>
       </c>
       <c r="H38" t="n">
-        <v>81.62248441377999</v>
+        <v>81.62248441378001</v>
       </c>
       <c r="I38" t="n">
-        <v>78.97953996564432</v>
+        <v>78.97953996564434</v>
       </c>
       <c r="J38" t="n">
-        <v>398.3917767811176</v>
+        <v>300.5325868192081</v>
       </c>
       <c r="K38" t="n">
-        <v>701.7663458097338</v>
+        <v>579.0895765271331</v>
       </c>
       <c r="L38" t="n">
-        <v>1084.242685094308</v>
+        <v>1375.050518216654</v>
       </c>
       <c r="M38" t="n">
-        <v>1986.509143451269</v>
+        <v>1832.29857841571</v>
       </c>
       <c r="N38" t="n">
-        <v>2888.743218849173</v>
+        <v>2301.55919864575</v>
       </c>
       <c r="O38" t="n">
-        <v>3318.517454620394</v>
+        <v>3108.325613867089</v>
       </c>
       <c r="P38" t="n">
-        <v>3650.818820813817</v>
+        <v>3440.626980060512</v>
       </c>
       <c r="Q38" t="n">
-        <v>3852.190561198449</v>
+        <v>3852.19056119845</v>
       </c>
       <c r="R38" t="n">
-        <v>3948.976998282216</v>
+        <v>3948.976998282217</v>
       </c>
       <c r="S38" t="n">
         <v>3885.028290414956</v>
       </c>
       <c r="T38" t="n">
-        <v>3733.552934477371</v>
+        <v>3733.552934477372</v>
       </c>
       <c r="U38" t="n">
         <v>3536.429762657771</v>
@@ -7245,34 +7245,34 @@
         <v>188.7167813690173</v>
       </c>
       <c r="H39" t="n">
-        <v>95.92436825737902</v>
+        <v>95.92436825737903</v>
       </c>
       <c r="I39" t="n">
-        <v>78.97953996564432</v>
+        <v>78.97953996564434</v>
       </c>
       <c r="J39" t="n">
-        <v>275.5259003370533</v>
+        <v>275.5259003370534</v>
       </c>
       <c r="K39" t="n">
-        <v>507.8274697514524</v>
+        <v>476.2551941278343</v>
       </c>
       <c r="L39" t="n">
-        <v>824.0553179417429</v>
+        <v>792.4830423181248</v>
       </c>
       <c r="M39" t="n">
-        <v>1212.435169448079</v>
+        <v>1180.862893824461</v>
       </c>
       <c r="N39" t="n">
-        <v>1625.502924879218</v>
+        <v>1593.9306492556</v>
       </c>
       <c r="O39" t="n">
-        <v>1981.159426563661</v>
+        <v>1949.587150940043</v>
       </c>
       <c r="P39" t="n">
-        <v>2247.272058153208</v>
+        <v>2216.779117698411</v>
       </c>
       <c r="Q39" t="n">
-        <v>2583.218623456811</v>
+        <v>2552.725683002015</v>
       </c>
       <c r="R39" t="n">
         <v>2583.218623456811</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>716.9277745060001</v>
+        <v>716.9277745060002</v>
       </c>
       <c r="C40" t="n">
-        <v>604.4343573475456</v>
+        <v>604.4343573475458</v>
       </c>
       <c r="D40" t="n">
-        <v>510.7604837046624</v>
+        <v>510.7604837046625</v>
       </c>
       <c r="E40" t="n">
-        <v>419.2901558917217</v>
+        <v>419.2901558917218</v>
       </c>
       <c r="F40" t="n">
-        <v>328.8429741632638</v>
+        <v>328.8429741632639</v>
       </c>
       <c r="G40" t="n">
-        <v>217.3840717785774</v>
+        <v>217.3840717785776</v>
       </c>
       <c r="H40" t="n">
         <v>125.8418577184066</v>
       </c>
       <c r="I40" t="n">
-        <v>78.97953996564432</v>
+        <v>78.97953996564434</v>
       </c>
       <c r="J40" t="n">
-        <v>165.6440800958695</v>
+        <v>165.6440800958694</v>
       </c>
       <c r="K40" t="n">
-        <v>402.3099113506539</v>
+        <v>402.3099113506538</v>
       </c>
       <c r="L40" t="n">
-        <v>745.2166992973904</v>
+        <v>745.2166992973903</v>
       </c>
       <c r="M40" t="n">
         <v>1114.145791843412</v>
       </c>
       <c r="N40" t="n">
-        <v>1481.05256695382</v>
+        <v>1481.052566953821</v>
       </c>
       <c r="O40" t="n">
         <v>1808.157056043705</v>
@@ -7375,7 +7375,7 @@
         <v>1006.483286940865</v>
       </c>
       <c r="Y40" t="n">
-        <v>842.1334735667873</v>
+        <v>842.1334735667874</v>
       </c>
     </row>
     <row r="41">
@@ -7397,61 +7397,61 @@
         <v>1040.918947753286</v>
       </c>
       <c r="F41" t="n">
-        <v>686.3758087331311</v>
+        <v>686.375808733131</v>
       </c>
       <c r="G41" t="n">
-        <v>327.3028635614558</v>
+        <v>327.3028635614556</v>
       </c>
       <c r="H41" t="n">
-        <v>81.62248441377999</v>
+        <v>81.62248441377994</v>
       </c>
       <c r="I41" t="n">
-        <v>78.97953996564432</v>
+        <v>78.97953996564434</v>
       </c>
       <c r="J41" t="n">
         <v>398.3917767811176</v>
       </c>
       <c r="K41" t="n">
-        <v>997.8527249344957</v>
+        <v>997.8527249344959</v>
       </c>
       <c r="L41" t="n">
-        <v>1433.461976577003</v>
+        <v>1380.32906421907</v>
       </c>
       <c r="M41" t="n">
-        <v>1890.710036776059</v>
+        <v>1837.577124418127</v>
       </c>
       <c r="N41" t="n">
-        <v>2359.970657006099</v>
+        <v>2306.837744648167</v>
       </c>
       <c r="O41" t="n">
-        <v>2789.74489277732</v>
+        <v>2789.744892777321</v>
       </c>
       <c r="P41" t="n">
-        <v>3440.626980060511</v>
+        <v>3440.626980060512</v>
       </c>
       <c r="Q41" t="n">
-        <v>3852.190561198449</v>
+        <v>3852.19056119845</v>
       </c>
       <c r="R41" t="n">
-        <v>3948.976998282216</v>
+        <v>3948.976998282217</v>
       </c>
       <c r="S41" t="n">
-        <v>3885.028290414956</v>
+        <v>3885.028290414957</v>
       </c>
       <c r="T41" t="n">
-        <v>3733.552934477372</v>
+        <v>3733.552934477373</v>
       </c>
       <c r="U41" t="n">
-        <v>3536.429762657771</v>
+        <v>3536.429762657772</v>
       </c>
       <c r="V41" t="n">
-        <v>3261.809641083653</v>
+        <v>3261.809641083652</v>
       </c>
       <c r="W41" t="n">
-        <v>2965.483751582991</v>
+        <v>2965.48375158299</v>
       </c>
       <c r="X41" t="n">
-        <v>2648.460759091364</v>
+        <v>2648.460759091363</v>
       </c>
       <c r="Y41" t="n">
         <v>2314.764192885004</v>
@@ -7482,31 +7482,31 @@
         <v>188.7167813690173</v>
       </c>
       <c r="H42" t="n">
-        <v>95.92436825737902</v>
+        <v>95.92436825737903</v>
       </c>
       <c r="I42" t="n">
-        <v>78.97953996564432</v>
+        <v>78.97953996564434</v>
       </c>
       <c r="J42" t="n">
-        <v>275.5259003370533</v>
+        <v>150.6957753500486</v>
       </c>
       <c r="K42" t="n">
-        <v>476.2551941278342</v>
+        <v>351.4250691408296</v>
       </c>
       <c r="L42" t="n">
-        <v>792.4830423181247</v>
+        <v>667.6529173311201</v>
       </c>
       <c r="M42" t="n">
-        <v>1180.86289382446</v>
+        <v>1056.032768837456</v>
       </c>
       <c r="N42" t="n">
-        <v>1593.9306492556</v>
+        <v>1833.479439737708</v>
       </c>
       <c r="O42" t="n">
-        <v>1949.587150940042</v>
+        <v>2189.135941422151</v>
       </c>
       <c r="P42" t="n">
-        <v>2247.272058153208</v>
+        <v>2455.248573011698</v>
       </c>
       <c r="Q42" t="n">
         <v>2583.218623456811</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>716.9277745059999</v>
+        <v>716.927774506</v>
       </c>
       <c r="C43" t="n">
-        <v>604.4343573475454</v>
+        <v>604.4343573475456</v>
       </c>
       <c r="D43" t="n">
-        <v>510.7604837046622</v>
+        <v>510.7604837046624</v>
       </c>
       <c r="E43" t="n">
-        <v>419.2901558917216</v>
+        <v>419.2901558917218</v>
       </c>
       <c r="F43" t="n">
-        <v>328.8429741632638</v>
+        <v>328.842974163264</v>
       </c>
       <c r="G43" t="n">
-        <v>217.3840717785774</v>
+        <v>217.3840717785777</v>
       </c>
       <c r="H43" t="n">
-        <v>125.8418577184063</v>
+        <v>125.8418577184066</v>
       </c>
       <c r="I43" t="n">
-        <v>78.97953996564432</v>
+        <v>78.97953996564434</v>
       </c>
       <c r="J43" t="n">
-        <v>165.6440800958694</v>
+        <v>165.6440800958695</v>
       </c>
       <c r="K43" t="n">
-        <v>402.3099113506539</v>
+        <v>402.309911350654</v>
       </c>
       <c r="L43" t="n">
-        <v>745.2166992973903</v>
+        <v>745.2166992973905</v>
       </c>
       <c r="M43" t="n">
-        <v>1114.145791843412</v>
+        <v>1114.145791843413</v>
       </c>
       <c r="N43" t="n">
         <v>1481.05256695382</v>
       </c>
       <c r="O43" t="n">
-        <v>1808.157056043706</v>
+        <v>1808.157056043705</v>
       </c>
       <c r="P43" t="n">
         <v>2072.51489218808</v>
@@ -7594,10 +7594,10 @@
         <v>2146.798757475352</v>
       </c>
       <c r="S43" t="n">
-        <v>2008.090547791446</v>
+        <v>2008.090547791445</v>
       </c>
       <c r="T43" t="n">
-        <v>1841.917145234395</v>
+        <v>1841.917145234396</v>
       </c>
       <c r="U43" t="n">
         <v>1609.246198773372</v>
@@ -7612,7 +7612,7 @@
         <v>1006.483286940865</v>
       </c>
       <c r="Y43" t="n">
-        <v>842.1334735667871</v>
+        <v>842.1334735667872</v>
       </c>
     </row>
     <row r="44">
@@ -7625,58 +7625,58 @@
         <v>1984.607118590335</v>
       </c>
       <c r="C44" t="n">
-        <v>1672.087367419376</v>
+        <v>1672.087367419375</v>
       </c>
       <c r="D44" t="n">
-        <v>1370.264434582078</v>
+        <v>1370.264434582077</v>
       </c>
       <c r="E44" t="n">
-        <v>1040.918947753286</v>
+        <v>1040.918947753285</v>
       </c>
       <c r="F44" t="n">
-        <v>686.3758087331314</v>
+        <v>686.3758087331307</v>
       </c>
       <c r="G44" t="n">
-        <v>327.302863561456</v>
+        <v>327.3028635614555</v>
       </c>
       <c r="H44" t="n">
-        <v>81.62248441377993</v>
+        <v>81.62248441377999</v>
       </c>
       <c r="I44" t="n">
-        <v>78.97953996564432</v>
+        <v>78.97953996564434</v>
       </c>
       <c r="J44" t="n">
-        <v>398.3917767811176</v>
+        <v>230.9861277607646</v>
       </c>
       <c r="K44" t="n">
-        <v>676.9487664890426</v>
+        <v>509.5431174686896</v>
       </c>
       <c r="L44" t="n">
-        <v>1059.425105773617</v>
+        <v>1149.301940768562</v>
       </c>
       <c r="M44" t="n">
-        <v>1832.298578415709</v>
+        <v>2051.568399125522</v>
       </c>
       <c r="N44" t="n">
-        <v>2301.559198645749</v>
+        <v>2953.802474523426</v>
       </c>
       <c r="O44" t="n">
-        <v>3108.325613867088</v>
+        <v>3383.576710294647</v>
       </c>
       <c r="P44" t="n">
-        <v>3440.626980060511</v>
+        <v>3715.87807648807</v>
       </c>
       <c r="Q44" t="n">
-        <v>3852.190561198449</v>
+        <v>3917.249816872702</v>
       </c>
       <c r="R44" t="n">
-        <v>3948.976998282216</v>
+        <v>3948.976998282217</v>
       </c>
       <c r="S44" t="n">
-        <v>3885.028290414956</v>
+        <v>3885.028290414957</v>
       </c>
       <c r="T44" t="n">
-        <v>3733.552934477372</v>
+        <v>3733.552934477373</v>
       </c>
       <c r="U44" t="n">
         <v>3536.42976265777</v>
@@ -7685,7 +7685,7 @@
         <v>3261.809641083652</v>
       </c>
       <c r="W44" t="n">
-        <v>2965.48375158299</v>
+        <v>2965.483751582991</v>
       </c>
       <c r="X44" t="n">
         <v>2648.460759091363</v>
@@ -7719,34 +7719,34 @@
         <v>188.7167813690173</v>
       </c>
       <c r="H45" t="n">
-        <v>95.92436825737902</v>
+        <v>95.92436825737903</v>
       </c>
       <c r="I45" t="n">
-        <v>78.97953996564432</v>
+        <v>78.97953996564434</v>
       </c>
       <c r="J45" t="n">
-        <v>275.5259003370533</v>
+        <v>275.5259003370534</v>
       </c>
       <c r="K45" t="n">
-        <v>507.8274697514527</v>
+        <v>476.2551941278343</v>
       </c>
       <c r="L45" t="n">
-        <v>824.0553179417432</v>
+        <v>792.4830423181248</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.435169448079</v>
+        <v>1180.862893824461</v>
       </c>
       <c r="N45" t="n">
-        <v>1625.502924879218</v>
+        <v>1593.9306492556</v>
       </c>
       <c r="O45" t="n">
-        <v>1981.159426563661</v>
+        <v>1950.666486108865</v>
       </c>
       <c r="P45" t="n">
-        <v>2247.272058153208</v>
+        <v>2216.779117698411</v>
       </c>
       <c r="Q45" t="n">
-        <v>2583.218623456811</v>
+        <v>2552.725683002015</v>
       </c>
       <c r="R45" t="n">
         <v>2583.218623456811</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>716.927774506</v>
+        <v>716.9277745059997</v>
       </c>
       <c r="C46" t="n">
-        <v>604.4343573475456</v>
+        <v>604.4343573475452</v>
       </c>
       <c r="D46" t="n">
-        <v>510.7604837046624</v>
+        <v>510.760483704662</v>
       </c>
       <c r="E46" t="n">
-        <v>419.2901558917218</v>
+        <v>419.2901558917214</v>
       </c>
       <c r="F46" t="n">
-        <v>328.842974163264</v>
+        <v>328.8429741632635</v>
       </c>
       <c r="G46" t="n">
-        <v>217.3840717785777</v>
+        <v>217.3840717785772</v>
       </c>
       <c r="H46" t="n">
         <v>125.8418577184066</v>
       </c>
       <c r="I46" t="n">
-        <v>78.97953996564432</v>
+        <v>78.97953996564434</v>
       </c>
       <c r="J46" t="n">
-        <v>165.6440800958694</v>
+        <v>165.6440800958697</v>
       </c>
       <c r="K46" t="n">
-        <v>402.3099113506539</v>
+        <v>402.3099113506541</v>
       </c>
       <c r="L46" t="n">
-        <v>745.2166992973903</v>
+        <v>745.2166992973906</v>
       </c>
       <c r="M46" t="n">
         <v>1114.145791843413</v>
@@ -7840,16 +7840,16 @@
         <v>1609.246198773372</v>
       </c>
       <c r="V46" t="n">
-        <v>1411.004476336938</v>
+        <v>1411.004476336937</v>
       </c>
       <c r="W46" t="n">
-        <v>1178.03007206943</v>
+        <v>1178.030072069429</v>
       </c>
       <c r="X46" t="n">
-        <v>1006.483286940865</v>
+        <v>1006.483286940864</v>
       </c>
       <c r="Y46" t="n">
-        <v>842.1334735667872</v>
+        <v>842.1334735667868</v>
       </c>
     </row>
   </sheetData>
@@ -8061,16 +8061,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8301,16 +8301,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.2450418519869</v>
+        <v>136.5653954824675</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>384.6945110063437</v>
+        <v>384.6945110063436</v>
       </c>
       <c r="N9" t="n">
-        <v>373.8491954283779</v>
+        <v>373.8491954283778</v>
       </c>
       <c r="O9" t="n">
         <v>385.2788254813443</v>
       </c>
       <c r="P9" t="n">
-        <v>132.4654202195568</v>
+        <v>133.1450665890763</v>
       </c>
       <c r="Q9" t="n">
         <v>138.9730561082392</v>
@@ -8696,7 +8696,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>110.4016333784457</v>
+        <v>176.1180532514239</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,10 +8769,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>31.89118749860444</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>31.89118749860415</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>14.72071985698133</v>
+        <v>14.7207198569813</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>250.2854774790174</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>110.401633378441</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>31.89118749860455</v>
+        <v>211.1675252801134</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>14.72071985698133</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,22 +9161,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>110.4016333784412</v>
       </c>
       <c r="O17" t="n">
-        <v>163.2998043525915</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.090237544264937</v>
+        <v>31.8911874986041</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>14.7207198569813</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>250.2854774790175</v>
+        <v>250.2854774790174</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>1.090237544265023</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.090237544264653</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9638,28 +9638,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>176.1180532514241</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>81.80028687617752</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>31.89118749860455</v>
+        <v>211.1675252801134</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>14.72071985698133</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>356.5807249689469</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>229.6664521829968</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>1.090237544265023</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>31.89118749860415</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>14.7207198569813</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,10 +10115,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>78.54931443605926</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>110.401633378441</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>1.090237544265023</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>31.8911874986041</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>14.7207198569813</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10358,19 +10358,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>93.35429854128148</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>236.2350749989617</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.090237544265221</v>
+        <v>31.89118749860421</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>14.7207198569813</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>25.06826194009216</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>194.1648771121656</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>31.89118749860427</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>31.89118749860472</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>14.72071985698133</v>
+        <v>14.7207198569813</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>70.24894854388231</v>
       </c>
       <c r="K38" t="n">
-        <v>25.0682619400921</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>31.89118749860421</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>1.090237544264482</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>14.7207198569813</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>53.66960844235632</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>53.66960844235666</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>368.0595105748616</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>31.89118749860472</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>14.72071985698133</v>
+        <v>14.7207198569813</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>259.8812969851487</v>
       </c>
       <c r="M44" t="n">
-        <v>318.8135479222583</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>31.89118749860455</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1.090237544264596</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>14.72071985698133</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-4.511744817446892e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.46818455397937</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,10 +23422,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>139.5335342263921</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.2226514725974</v>
@@ -23434,7 +23434,7 @@
         <v>146.5051300313272</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>102.2720326869926</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>97.7829393456236</v>
+        <v>97.78293934562359</v>
       </c>
       <c r="S13" t="n">
-        <v>193.1994656988256</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.2226514725974</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.6606496527819</v>
       </c>
       <c r="I16" t="n">
         <v>102.2720326869926</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>97.7829393456236</v>
+        <v>97.78293934562359</v>
       </c>
       <c r="S16" t="n">
-        <v>55.24500890281575</v>
+        <v>193.1994656988256</v>
       </c>
       <c r="T16" t="n">
         <v>220.3900066432377</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2225751081712</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23905,10 +23905,10 @@
         <v>166.2226514725974</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>146.5051300313272</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>102.2720326869926</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>129.6351840956046</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>91.88934847733313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.2226514725974</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>146.5051300313272</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2720326869926</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>97.7829393456236</v>
+        <v>97.78293934562359</v>
       </c>
       <c r="S22" t="n">
-        <v>31.85224474998088</v>
+        <v>193.1994656988256</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.3900066432377</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2225751081712</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>137.0306051121826</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>97.78293934562359</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>22.94416594095116</v>
+        <v>31.85224474998043</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.2226514725974</v>
       </c>
       <c r="H28" t="n">
-        <v>95.51694743528927</v>
+        <v>146.5051300313272</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>102.2720326869926</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>97.78293934562359</v>
       </c>
       <c r="S28" t="n">
-        <v>193.1994656988256</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2225751081712</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>211.6842249319181</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>97.7829393456236</v>
+        <v>97.78293934562359</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>211.6842249319186</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>31.85224474998063</v>
       </c>
     </row>
     <row r="32">
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>123.3087424030766</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>120.1143174077955</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>260.9158444930355</v>
       </c>
       <c r="V34" t="n">
-        <v>226.8309127086923</v>
+        <v>226.8309127086924</v>
       </c>
       <c r="W34" t="n">
-        <v>258.5976074859074</v>
+        <v>241.1048228037468</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1223686.223005411</v>
+        <v>1223686.22300541</v>
       </c>
     </row>
     <row r="6">
@@ -26317,7 +26317,7 @@
         <v>205260.4424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>205260.4424660707</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
         <v>197267.3367665422</v>
@@ -26332,10 +26332,10 @@
         <v>197267.3367665421</v>
       </c>
       <c r="I2" t="n">
+        <v>197267.3367665422</v>
+      </c>
+      <c r="J2" t="n">
         <v>197267.3367665421</v>
-      </c>
-      <c r="J2" t="n">
-        <v>197267.3367665422</v>
       </c>
       <c r="K2" t="n">
         <v>197267.3367665421</v>
@@ -26344,10 +26344,10 @@
         <v>200887.332986038</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.442466071</v>
       </c>
       <c r="N2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="O2" t="n">
         <v>205260.442466071</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>20245.38449210856</v>
+        <v>20245.38449210848</v>
       </c>
       <c r="M3" t="n">
-        <v>210420.7771218103</v>
+        <v>210420.7771218101</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,25 +26418,25 @@
         <v>346065.6887052709</v>
       </c>
       <c r="C4" t="n">
-        <v>346065.6887052708</v>
+        <v>346065.6887052709</v>
       </c>
       <c r="D4" t="n">
         <v>344766.8436037346</v>
       </c>
       <c r="E4" t="n">
-        <v>40872.57569855663</v>
+        <v>40872.57569855655</v>
       </c>
       <c r="F4" t="n">
         <v>40872.57569855655</v>
       </c>
       <c r="G4" t="n">
-        <v>40872.57569855657</v>
+        <v>40872.57569855652</v>
       </c>
       <c r="H4" t="n">
-        <v>40872.57569855657</v>
+        <v>40872.57569855655</v>
       </c>
       <c r="I4" t="n">
-        <v>40872.57569855657</v>
+        <v>40872.57569855656</v>
       </c>
       <c r="J4" t="n">
         <v>40872.57569855657</v>
@@ -26445,19 +26445,19 @@
         <v>40872.57569855655</v>
       </c>
       <c r="L4" t="n">
-        <v>49600.04076745481</v>
+        <v>49600.04076745478</v>
       </c>
       <c r="M4" t="n">
-        <v>83623.4019752017</v>
+        <v>83623.40197520172</v>
       </c>
       <c r="N4" t="n">
-        <v>83623.4019752017</v>
+        <v>83623.40197520168</v>
       </c>
       <c r="O4" t="n">
-        <v>83623.4019752017</v>
+        <v>83623.40197520165</v>
       </c>
       <c r="P4" t="n">
-        <v>83623.40197520176</v>
+        <v>83623.40197520172</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>48577.10433863014</v>
       </c>
       <c r="E5" t="n">
-        <v>94533.50918338766</v>
+        <v>94533.50918338759</v>
       </c>
       <c r="F5" t="n">
         <v>94533.50918338759</v>
@@ -26500,16 +26500,16 @@
         <v>96445.27535567564</v>
       </c>
       <c r="M5" t="n">
-        <v>86099.56294986499</v>
+        <v>86099.56294986501</v>
       </c>
       <c r="N5" t="n">
         <v>86099.56294986501</v>
       </c>
       <c r="O5" t="n">
-        <v>86099.56294986499</v>
+        <v>86099.56294986501</v>
       </c>
       <c r="P5" t="n">
-        <v>86099.56294986499</v>
+        <v>86099.56294986501</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26525,43 @@
         <v>-189086.5150029617</v>
       </c>
       <c r="D6" t="n">
-        <v>-192332.1060914217</v>
+        <v>-192332.1060914216</v>
       </c>
       <c r="E6" t="n">
-        <v>-1009253.982193982</v>
+        <v>-1009333.913250977</v>
       </c>
       <c r="F6" t="n">
-        <v>61861.25188459831</v>
+        <v>61781.32082760271</v>
       </c>
       <c r="G6" t="n">
-        <v>61861.25188459796</v>
+        <v>61781.32082760274</v>
       </c>
       <c r="H6" t="n">
-        <v>61861.25188459796</v>
+        <v>61781.32082760265</v>
       </c>
       <c r="I6" t="n">
-        <v>61861.25188459791</v>
+        <v>61781.32082760274</v>
       </c>
       <c r="J6" t="n">
-        <v>-1198.690714508164</v>
+        <v>-1278.621771503568</v>
       </c>
       <c r="K6" t="n">
-        <v>61861.25188459796</v>
+        <v>61781.32082760271</v>
       </c>
       <c r="L6" t="n">
-        <v>34596.63237079896</v>
+        <v>34552.90127599878</v>
       </c>
       <c r="M6" t="n">
-        <v>-174883.2995808061</v>
+        <v>-174883.2995808059</v>
       </c>
       <c r="N6" t="n">
-        <v>35537.47754100422</v>
+        <v>35537.47754100419</v>
       </c>
       <c r="O6" t="n">
-        <v>35537.47754100429</v>
+        <v>35537.47754100428</v>
       </c>
       <c r="P6" t="n">
-        <v>35537.47754100412</v>
+        <v>35537.47754100421</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>25.3067306151357</v>
+        <v>25.3067306151356</v>
       </c>
       <c r="M2" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="N2" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="O2" t="n">
+        <v>55.878338111758</v>
+      </c>
+      <c r="P2" t="n">
         <v>55.87833811175797</v>
-      </c>
-      <c r="P2" t="n">
-        <v>55.87833811175802</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>3.673862893242319</v>
       </c>
       <c r="E3" t="n">
-        <v>980.618191250364</v>
+        <v>980.6181912503641</v>
       </c>
       <c r="F3" t="n">
-        <v>980.618191250364</v>
+        <v>980.6181912503641</v>
       </c>
       <c r="G3" t="n">
-        <v>980.618191250364</v>
+        <v>980.6181912503641</v>
       </c>
       <c r="H3" t="n">
-        <v>980.618191250364</v>
+        <v>980.6181912503641</v>
       </c>
       <c r="I3" t="n">
-        <v>980.618191250364</v>
+        <v>980.6181912503641</v>
       </c>
       <c r="J3" t="n">
-        <v>980.618191250364</v>
+        <v>980.6181912503641</v>
       </c>
       <c r="K3" t="n">
-        <v>980.618191250364</v>
+        <v>980.6181912503641</v>
       </c>
       <c r="L3" t="n">
-        <v>980.618191250364</v>
+        <v>980.6181912503641</v>
       </c>
       <c r="M3" t="n">
-        <v>980.618191250364</v>
+        <v>980.6181912503641</v>
       </c>
       <c r="N3" t="n">
         <v>980.6181912503641</v>
       </c>
       <c r="O3" t="n">
-        <v>980.618191250364</v>
+        <v>980.6181912503641</v>
       </c>
       <c r="P3" t="n">
-        <v>980.618191250364</v>
+        <v>980.6181912503641</v>
       </c>
     </row>
     <row r="4">
@@ -26796,7 +26796,7 @@
         <v>244.5627323611424</v>
       </c>
       <c r="E4" t="n">
-        <v>1203.224220627134</v>
+        <v>1203.224220627133</v>
       </c>
       <c r="F4" t="n">
         <v>1203.224220627133</v>
@@ -26823,13 +26823,13 @@
         <v>987.2442495705541</v>
       </c>
       <c r="N4" t="n">
-        <v>987.2442495705541</v>
+        <v>987.2442495705542</v>
       </c>
       <c r="O4" t="n">
-        <v>987.244249570554</v>
+        <v>987.2442495705542</v>
       </c>
       <c r="P4" t="n">
-        <v>987.244249570554</v>
+        <v>987.2442495705542</v>
       </c>
     </row>
   </sheetData>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>25.3067306151357</v>
+        <v>25.3067306151356</v>
       </c>
       <c r="M2" t="n">
-        <v>30.57160749662226</v>
+        <v>30.57160749662238</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-4.263256414560601e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>3.673862893242319</v>
       </c>
       <c r="E3" t="n">
-        <v>976.9443283571217</v>
+        <v>976.9443283571218</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>3.548443483483368</v>
       </c>
       <c r="E4" t="n">
-        <v>958.6614882659912</v>
+        <v>958.6614882659901</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.154555488512814e-12</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>746.2299606928962</v>
+        <v>746.229960692895</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>3.548443483483368</v>
       </c>
       <c r="M4" t="n">
-        <v>958.6614882659912</v>
+        <v>958.6614882659901</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>213.9149468690341</v>
+        <v>231.8333861825618</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27430,10 +27430,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>10.10046515680267</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27479,7 +27479,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,10 +27506,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>101.7811932823757</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27540,13 +27540,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>18.14994616795082</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>14.95552117266971</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>199.8391668911481</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>231.8333861825618</v>
-      </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27664,25 +27664,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>137.3904765850695</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>36.78129424836629</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>59.79494433408007</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>247.9919722010868</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>207.7750741887778</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>339.3235460419765</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U8" t="n">
         <v>251.3444713639914</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>83.18952610899248</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>104.6782363562706</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>125.1683683173266</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27947,7 +27947,7 @@
         <v>137.3356148920818</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I9" t="n">
         <v>89.12455904281175</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>99.6672001609758</v>
+        <v>59.64531532261583</v>
       </c>
       <c r="S9" t="n">
         <v>171.5363898835276</v>
       </c>
       <c r="T9" t="n">
-        <v>173.9824019634237</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9408621947163</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>7.132250799777182</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>54.3227533916355</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H10" t="n">
         <v>162.1682702466266</v>
@@ -28032,7 +28032,7 @@
         <v>155.2512431493756</v>
       </c>
       <c r="J10" t="n">
-        <v>92.89079271141465</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>85.60728995481479</v>
+        <v>64.83648169806612</v>
       </c>
       <c r="R10" t="n">
         <v>176.9955073465141</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13.77079947070251</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>13.77079947070271</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.3067306151357</v>
+        <v>25.3067306151356</v>
       </c>
       <c r="C34" t="n">
-        <v>25.3067306151357</v>
+        <v>25.3067306151356</v>
       </c>
       <c r="D34" t="n">
-        <v>25.3067306151357</v>
+        <v>25.3067306151356</v>
       </c>
       <c r="E34" t="n">
-        <v>25.3067306151357</v>
+        <v>25.3067306151356</v>
       </c>
       <c r="F34" t="n">
-        <v>25.3067306151357</v>
+        <v>25.3067306151356</v>
       </c>
       <c r="G34" t="n">
-        <v>25.3067306151357</v>
+        <v>25.3067306151356</v>
       </c>
       <c r="H34" t="n">
-        <v>25.3067306151357</v>
+        <v>25.3067306151356</v>
       </c>
       <c r="I34" t="n">
-        <v>25.3067306151357</v>
+        <v>25.3067306151356</v>
       </c>
       <c r="J34" t="n">
-        <v>25.3067306151357</v>
+        <v>25.3067306151356</v>
       </c>
       <c r="K34" t="n">
-        <v>25.3067306151357</v>
+        <v>25.3067306151356</v>
       </c>
       <c r="L34" t="n">
-        <v>25.3067306151357</v>
+        <v>25.3067306151356</v>
       </c>
       <c r="M34" t="n">
-        <v>25.3067306151357</v>
+        <v>25.3067306151356</v>
       </c>
       <c r="N34" t="n">
-        <v>25.3067306151357</v>
+        <v>25.3067306151356</v>
       </c>
       <c r="O34" t="n">
-        <v>25.3067306151357</v>
+        <v>25.3067306151356</v>
       </c>
       <c r="P34" t="n">
-        <v>25.3067306151357</v>
+        <v>25.3067306151356</v>
       </c>
       <c r="Q34" t="n">
-        <v>25.3067306151357</v>
+        <v>25.3067306151356</v>
       </c>
       <c r="R34" t="n">
-        <v>25.3067306151357</v>
+        <v>25.3067306151356</v>
       </c>
       <c r="S34" t="n">
-        <v>25.3067306151357</v>
+        <v>25.3067306151356</v>
       </c>
       <c r="T34" t="n">
-        <v>25.3067306151357</v>
+        <v>25.3067306151356</v>
       </c>
       <c r="U34" t="n">
-        <v>25.3067306151357</v>
+        <v>25.3067306151356</v>
       </c>
       <c r="V34" t="n">
-        <v>25.3067306151357</v>
+        <v>25.3067306151356</v>
       </c>
       <c r="W34" t="n">
-        <v>25.3067306151357</v>
+        <v>25.3067306151356</v>
       </c>
       <c r="X34" t="n">
-        <v>25.3067306151357</v>
+        <v>25.3067306151356</v>
       </c>
       <c r="Y34" t="n">
-        <v>25.3067306151357</v>
+        <v>25.3067306151356</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="C35" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="D35" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="E35" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="F35" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="G35" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="H35" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="I35" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="T35" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="U35" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="V35" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="W35" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="X35" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="Y35" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="C37" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="D37" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="E37" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="F37" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="G37" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="H37" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="I37" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="J37" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="K37" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="L37" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="M37" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="N37" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="O37" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="P37" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="Q37" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="R37" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="S37" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="T37" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="U37" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="V37" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="W37" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="X37" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
       <c r="Y37" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175798</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="C38" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="D38" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="E38" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="F38" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="G38" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="H38" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="I38" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="T38" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="U38" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="V38" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="W38" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="X38" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="Y38" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="C40" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="D40" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="E40" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="F40" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="G40" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="H40" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="I40" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="J40" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="K40" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="L40" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="M40" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="N40" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="O40" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="P40" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="Q40" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="R40" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="S40" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="T40" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="U40" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="V40" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="W40" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="X40" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
       <c r="Y40" t="n">
-        <v>55.87833811175796</v>
+        <v>55.87833811175794</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="C41" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="D41" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="E41" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="F41" t="n">
-        <v>55.87833811175773</v>
+        <v>55.878338111758</v>
       </c>
       <c r="G41" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="H41" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="I41" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="T41" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="U41" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="V41" t="n">
-        <v>55.87833811175797</v>
+        <v>55.87833811175631</v>
       </c>
       <c r="W41" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="X41" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="Y41" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="C43" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="D43" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="E43" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="F43" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="G43" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="H43" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="I43" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="J43" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="K43" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="L43" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="M43" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="N43" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="O43" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="P43" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="R43" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="S43" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="T43" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="U43" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="V43" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="W43" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="X43" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
       <c r="Y43" t="n">
-        <v>55.87833811175797</v>
+        <v>55.878338111758</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="C44" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="D44" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="E44" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="F44" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="G44" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="H44" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="I44" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="T44" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="U44" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="V44" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="W44" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="X44" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="Y44" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="C46" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="D46" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="E46" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="F46" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="G46" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="H46" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="I46" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="J46" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="K46" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="L46" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="M46" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="N46" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="O46" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="P46" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="Q46" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="R46" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="S46" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="T46" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="U46" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="V46" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="W46" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="X46" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
       <c r="Y46" t="n">
-        <v>55.87833811175802</v>
+        <v>55.87833811175797</v>
       </c>
     </row>
   </sheetData>
@@ -31753,7 +31753,7 @@
         <v>3.942183683418546</v>
       </c>
       <c r="H11" t="n">
-        <v>40.37288864781019</v>
+        <v>40.3728886478102</v>
       </c>
       <c r="I11" t="n">
         <v>151.9810364549936</v>
@@ -31768,7 +31768,7 @@
         <v>622.1061516210727</v>
       </c>
       <c r="M11" t="n">
-        <v>692.2129607010672</v>
+        <v>692.2129607010673</v>
       </c>
       <c r="N11" t="n">
         <v>703.4136900915803</v>
@@ -31777,19 +31777,19 @@
         <v>664.2136010895871</v>
       </c>
       <c r="P11" t="n">
-        <v>566.8909414051916</v>
+        <v>566.8909414051917</v>
       </c>
       <c r="Q11" t="n">
-        <v>425.7114882427648</v>
+        <v>425.7114882427649</v>
       </c>
       <c r="R11" t="n">
-        <v>247.6331958035404</v>
+        <v>247.6331958035405</v>
       </c>
       <c r="S11" t="n">
-        <v>89.8325106859002</v>
+        <v>89.83251068590022</v>
       </c>
       <c r="T11" t="n">
-        <v>17.25690907416469</v>
+        <v>17.2569090741647</v>
       </c>
       <c r="U11" t="n">
         <v>0.3153746946734836</v>
@@ -31838,7 +31838,7 @@
         <v>72.62125284259773</v>
       </c>
       <c r="J12" t="n">
-        <v>199.2782684690952</v>
+        <v>199.2782684690953</v>
       </c>
       <c r="K12" t="n">
         <v>340.5983013892892</v>
@@ -31850,7 +31850,7 @@
         <v>534.4369142314483</v>
       </c>
       <c r="N12" t="n">
-        <v>548.5818690844843</v>
+        <v>548.5818690844844</v>
       </c>
       <c r="O12" t="n">
         <v>501.8452360448915</v>
@@ -31859,7 +31859,7 @@
         <v>402.7750453835694</v>
       </c>
       <c r="Q12" t="n">
-        <v>269.2444513033075</v>
+        <v>269.2444513033076</v>
       </c>
       <c r="R12" t="n">
         <v>130.9587841069826</v>
@@ -31914,10 +31914,10 @@
         <v>15.7220424761124</v>
       </c>
       <c r="I13" t="n">
-        <v>53.17844224026565</v>
+        <v>53.17844224026566</v>
       </c>
       <c r="J13" t="n">
-        <v>125.0207815303947</v>
+        <v>125.0207815303948</v>
       </c>
       <c r="K13" t="n">
         <v>205.4475489209779</v>
@@ -31941,13 +31941,13 @@
         <v>148.073346878805</v>
       </c>
       <c r="R13" t="n">
-        <v>79.51045203154588</v>
+        <v>79.5104520315459</v>
       </c>
       <c r="S13" t="n">
         <v>30.81713233814667</v>
       </c>
       <c r="T13" t="n">
-        <v>7.555582785043786</v>
+        <v>7.555582785043787</v>
       </c>
       <c r="U13" t="n">
         <v>0.09645424831970804</v>
@@ -31990,7 +31990,7 @@
         <v>3.942183683418546</v>
       </c>
       <c r="H14" t="n">
-        <v>40.37288864781019</v>
+        <v>40.3728886478102</v>
       </c>
       <c r="I14" t="n">
         <v>151.9810364549936</v>
@@ -32005,7 +32005,7 @@
         <v>622.1061516210727</v>
       </c>
       <c r="M14" t="n">
-        <v>692.2129607010672</v>
+        <v>692.2129607010673</v>
       </c>
       <c r="N14" t="n">
         <v>703.4136900915803</v>
@@ -32014,19 +32014,19 @@
         <v>664.2136010895871</v>
       </c>
       <c r="P14" t="n">
-        <v>566.8909414051916</v>
+        <v>566.8909414051917</v>
       </c>
       <c r="Q14" t="n">
-        <v>425.7114882427648</v>
+        <v>425.7114882427649</v>
       </c>
       <c r="R14" t="n">
-        <v>247.6331958035404</v>
+        <v>247.6331958035405</v>
       </c>
       <c r="S14" t="n">
-        <v>89.8325106859002</v>
+        <v>89.83251068590022</v>
       </c>
       <c r="T14" t="n">
-        <v>17.25690907416469</v>
+        <v>17.2569090741647</v>
       </c>
       <c r="U14" t="n">
         <v>0.3153746946734836</v>
@@ -32075,7 +32075,7 @@
         <v>72.62125284259773</v>
       </c>
       <c r="J15" t="n">
-        <v>199.2782684690952</v>
+        <v>199.2782684690953</v>
       </c>
       <c r="K15" t="n">
         <v>340.5983013892892</v>
@@ -32087,7 +32087,7 @@
         <v>534.4369142314483</v>
       </c>
       <c r="N15" t="n">
-        <v>548.5818690844843</v>
+        <v>548.5818690844844</v>
       </c>
       <c r="O15" t="n">
         <v>501.8452360448915</v>
@@ -32096,7 +32096,7 @@
         <v>402.7750453835694</v>
       </c>
       <c r="Q15" t="n">
-        <v>269.2444513033075</v>
+        <v>269.2444513033076</v>
       </c>
       <c r="R15" t="n">
         <v>130.9587841069826</v>
@@ -32151,10 +32151,10 @@
         <v>15.7220424761124</v>
       </c>
       <c r="I16" t="n">
-        <v>53.17844224026565</v>
+        <v>53.17844224026566</v>
       </c>
       <c r="J16" t="n">
-        <v>125.0207815303947</v>
+        <v>125.0207815303948</v>
       </c>
       <c r="K16" t="n">
         <v>205.4475489209779</v>
@@ -32178,13 +32178,13 @@
         <v>148.073346878805</v>
       </c>
       <c r="R16" t="n">
-        <v>79.51045203154588</v>
+        <v>79.5104520315459</v>
       </c>
       <c r="S16" t="n">
         <v>30.81713233814667</v>
       </c>
       <c r="T16" t="n">
-        <v>7.555582785043786</v>
+        <v>7.555582785043787</v>
       </c>
       <c r="U16" t="n">
         <v>0.09645424831970804</v>
@@ -32227,7 +32227,7 @@
         <v>3.942183683418546</v>
       </c>
       <c r="H17" t="n">
-        <v>40.37288864781019</v>
+        <v>40.3728886478102</v>
       </c>
       <c r="I17" t="n">
         <v>151.9810364549936</v>
@@ -32242,7 +32242,7 @@
         <v>622.1061516210727</v>
       </c>
       <c r="M17" t="n">
-        <v>692.2129607010672</v>
+        <v>692.2129607010673</v>
       </c>
       <c r="N17" t="n">
         <v>703.4136900915803</v>
@@ -32251,19 +32251,19 @@
         <v>664.2136010895871</v>
       </c>
       <c r="P17" t="n">
-        <v>566.8909414051916</v>
+        <v>566.8909414051917</v>
       </c>
       <c r="Q17" t="n">
-        <v>425.7114882427648</v>
+        <v>425.7114882427649</v>
       </c>
       <c r="R17" t="n">
-        <v>247.6331958035404</v>
+        <v>247.6331958035405</v>
       </c>
       <c r="S17" t="n">
-        <v>89.8325106859002</v>
+        <v>89.83251068590022</v>
       </c>
       <c r="T17" t="n">
-        <v>17.25690907416469</v>
+        <v>17.2569090741647</v>
       </c>
       <c r="U17" t="n">
         <v>0.3153746946734836</v>
@@ -32312,7 +32312,7 @@
         <v>72.62125284259773</v>
       </c>
       <c r="J18" t="n">
-        <v>199.2782684690952</v>
+        <v>199.2782684690953</v>
       </c>
       <c r="K18" t="n">
         <v>340.5983013892892</v>
@@ -32324,7 +32324,7 @@
         <v>534.4369142314483</v>
       </c>
       <c r="N18" t="n">
-        <v>548.5818690844843</v>
+        <v>548.5818690844844</v>
       </c>
       <c r="O18" t="n">
         <v>501.8452360448915</v>
@@ -32333,7 +32333,7 @@
         <v>402.7750453835694</v>
       </c>
       <c r="Q18" t="n">
-        <v>269.2444513033075</v>
+        <v>269.2444513033076</v>
       </c>
       <c r="R18" t="n">
         <v>130.9587841069826</v>
@@ -32388,10 +32388,10 @@
         <v>15.7220424761124</v>
       </c>
       <c r="I19" t="n">
-        <v>53.17844224026565</v>
+        <v>53.17844224026566</v>
       </c>
       <c r="J19" t="n">
-        <v>125.0207815303947</v>
+        <v>125.0207815303948</v>
       </c>
       <c r="K19" t="n">
         <v>205.4475489209779</v>
@@ -32415,13 +32415,13 @@
         <v>148.073346878805</v>
       </c>
       <c r="R19" t="n">
-        <v>79.51045203154588</v>
+        <v>79.5104520315459</v>
       </c>
       <c r="S19" t="n">
         <v>30.81713233814667</v>
       </c>
       <c r="T19" t="n">
-        <v>7.555582785043786</v>
+        <v>7.555582785043787</v>
       </c>
       <c r="U19" t="n">
         <v>0.09645424831970804</v>
@@ -32464,7 +32464,7 @@
         <v>3.942183683418546</v>
       </c>
       <c r="H20" t="n">
-        <v>40.37288864781019</v>
+        <v>40.3728886478102</v>
       </c>
       <c r="I20" t="n">
         <v>151.9810364549936</v>
@@ -32479,7 +32479,7 @@
         <v>622.1061516210727</v>
       </c>
       <c r="M20" t="n">
-        <v>692.2129607010672</v>
+        <v>692.2129607010673</v>
       </c>
       <c r="N20" t="n">
         <v>703.4136900915803</v>
@@ -32488,19 +32488,19 @@
         <v>664.2136010895871</v>
       </c>
       <c r="P20" t="n">
-        <v>566.8909414051916</v>
+        <v>566.8909414051917</v>
       </c>
       <c r="Q20" t="n">
-        <v>425.7114882427648</v>
+        <v>425.7114882427649</v>
       </c>
       <c r="R20" t="n">
-        <v>247.6331958035404</v>
+        <v>247.6331958035405</v>
       </c>
       <c r="S20" t="n">
-        <v>89.8325106859002</v>
+        <v>89.83251068590022</v>
       </c>
       <c r="T20" t="n">
-        <v>17.25690907416469</v>
+        <v>17.2569090741647</v>
       </c>
       <c r="U20" t="n">
         <v>0.3153746946734836</v>
@@ -32549,7 +32549,7 @@
         <v>72.62125284259773</v>
       </c>
       <c r="J21" t="n">
-        <v>199.2782684690952</v>
+        <v>199.2782684690953</v>
       </c>
       <c r="K21" t="n">
         <v>340.5983013892892</v>
@@ -32561,7 +32561,7 @@
         <v>534.4369142314483</v>
       </c>
       <c r="N21" t="n">
-        <v>548.5818690844843</v>
+        <v>548.5818690844844</v>
       </c>
       <c r="O21" t="n">
         <v>501.8452360448915</v>
@@ -32570,7 +32570,7 @@
         <v>402.7750453835694</v>
       </c>
       <c r="Q21" t="n">
-        <v>269.2444513033075</v>
+        <v>269.2444513033076</v>
       </c>
       <c r="R21" t="n">
         <v>130.9587841069826</v>
@@ -32625,10 +32625,10 @@
         <v>15.7220424761124</v>
       </c>
       <c r="I22" t="n">
-        <v>53.17844224026565</v>
+        <v>53.17844224026566</v>
       </c>
       <c r="J22" t="n">
-        <v>125.0207815303947</v>
+        <v>125.0207815303948</v>
       </c>
       <c r="K22" t="n">
         <v>205.4475489209779</v>
@@ -32652,13 +32652,13 @@
         <v>148.073346878805</v>
       </c>
       <c r="R22" t="n">
-        <v>79.51045203154588</v>
+        <v>79.5104520315459</v>
       </c>
       <c r="S22" t="n">
         <v>30.81713233814667</v>
       </c>
       <c r="T22" t="n">
-        <v>7.555582785043786</v>
+        <v>7.555582785043787</v>
       </c>
       <c r="U22" t="n">
         <v>0.09645424831970804</v>
@@ -32701,7 +32701,7 @@
         <v>3.942183683418546</v>
       </c>
       <c r="H23" t="n">
-        <v>40.37288864781019</v>
+        <v>40.3728886478102</v>
       </c>
       <c r="I23" t="n">
         <v>151.9810364549936</v>
@@ -32716,7 +32716,7 @@
         <v>622.1061516210727</v>
       </c>
       <c r="M23" t="n">
-        <v>692.2129607010672</v>
+        <v>692.2129607010673</v>
       </c>
       <c r="N23" t="n">
         <v>703.4136900915803</v>
@@ -32725,19 +32725,19 @@
         <v>664.2136010895871</v>
       </c>
       <c r="P23" t="n">
-        <v>566.8909414051916</v>
+        <v>566.8909414051917</v>
       </c>
       <c r="Q23" t="n">
-        <v>425.7114882427648</v>
+        <v>425.7114882427649</v>
       </c>
       <c r="R23" t="n">
-        <v>247.6331958035404</v>
+        <v>247.6331958035405</v>
       </c>
       <c r="S23" t="n">
-        <v>89.8325106859002</v>
+        <v>89.83251068590022</v>
       </c>
       <c r="T23" t="n">
-        <v>17.25690907416469</v>
+        <v>17.2569090741647</v>
       </c>
       <c r="U23" t="n">
         <v>0.3153746946734836</v>
@@ -32786,7 +32786,7 @@
         <v>72.62125284259773</v>
       </c>
       <c r="J24" t="n">
-        <v>199.2782684690952</v>
+        <v>199.2782684690953</v>
       </c>
       <c r="K24" t="n">
         <v>340.5983013892892</v>
@@ -32798,7 +32798,7 @@
         <v>534.4369142314483</v>
       </c>
       <c r="N24" t="n">
-        <v>548.5818690844843</v>
+        <v>548.5818690844844</v>
       </c>
       <c r="O24" t="n">
         <v>501.8452360448915</v>
@@ -32807,7 +32807,7 @@
         <v>402.7750453835694</v>
       </c>
       <c r="Q24" t="n">
-        <v>269.2444513033075</v>
+        <v>269.2444513033076</v>
       </c>
       <c r="R24" t="n">
         <v>130.9587841069826</v>
@@ -32862,10 +32862,10 @@
         <v>15.7220424761124</v>
       </c>
       <c r="I25" t="n">
-        <v>53.17844224026565</v>
+        <v>53.17844224026566</v>
       </c>
       <c r="J25" t="n">
-        <v>125.0207815303947</v>
+        <v>125.0207815303948</v>
       </c>
       <c r="K25" t="n">
         <v>205.4475489209779</v>
@@ -32889,13 +32889,13 @@
         <v>148.073346878805</v>
       </c>
       <c r="R25" t="n">
-        <v>79.51045203154588</v>
+        <v>79.5104520315459</v>
       </c>
       <c r="S25" t="n">
         <v>30.81713233814667</v>
       </c>
       <c r="T25" t="n">
-        <v>7.555582785043786</v>
+        <v>7.555582785043787</v>
       </c>
       <c r="U25" t="n">
         <v>0.09645424831970804</v>
@@ -32938,7 +32938,7 @@
         <v>3.942183683418546</v>
       </c>
       <c r="H26" t="n">
-        <v>40.37288864781019</v>
+        <v>40.3728886478102</v>
       </c>
       <c r="I26" t="n">
         <v>151.9810364549936</v>
@@ -32953,7 +32953,7 @@
         <v>622.1061516210727</v>
       </c>
       <c r="M26" t="n">
-        <v>692.2129607010672</v>
+        <v>692.2129607010673</v>
       </c>
       <c r="N26" t="n">
         <v>703.4136900915803</v>
@@ -32962,19 +32962,19 @@
         <v>664.2136010895871</v>
       </c>
       <c r="P26" t="n">
-        <v>566.8909414051916</v>
+        <v>566.8909414051917</v>
       </c>
       <c r="Q26" t="n">
-        <v>425.7114882427648</v>
+        <v>425.7114882427649</v>
       </c>
       <c r="R26" t="n">
-        <v>247.6331958035404</v>
+        <v>247.6331958035405</v>
       </c>
       <c r="S26" t="n">
-        <v>89.8325106859002</v>
+        <v>89.83251068590022</v>
       </c>
       <c r="T26" t="n">
-        <v>17.25690907416469</v>
+        <v>17.2569090741647</v>
       </c>
       <c r="U26" t="n">
         <v>0.3153746946734836</v>
@@ -33023,7 +33023,7 @@
         <v>72.62125284259773</v>
       </c>
       <c r="J27" t="n">
-        <v>199.2782684690952</v>
+        <v>199.2782684690953</v>
       </c>
       <c r="K27" t="n">
         <v>340.5983013892892</v>
@@ -33035,7 +33035,7 @@
         <v>534.4369142314483</v>
       </c>
       <c r="N27" t="n">
-        <v>548.5818690844843</v>
+        <v>548.5818690844844</v>
       </c>
       <c r="O27" t="n">
         <v>501.8452360448915</v>
@@ -33044,7 +33044,7 @@
         <v>402.7750453835694</v>
       </c>
       <c r="Q27" t="n">
-        <v>269.2444513033075</v>
+        <v>269.2444513033076</v>
       </c>
       <c r="R27" t="n">
         <v>130.9587841069826</v>
@@ -33099,10 +33099,10 @@
         <v>15.7220424761124</v>
       </c>
       <c r="I28" t="n">
-        <v>53.17844224026565</v>
+        <v>53.17844224026566</v>
       </c>
       <c r="J28" t="n">
-        <v>125.0207815303947</v>
+        <v>125.0207815303948</v>
       </c>
       <c r="K28" t="n">
         <v>205.4475489209779</v>
@@ -33126,13 +33126,13 @@
         <v>148.073346878805</v>
       </c>
       <c r="R28" t="n">
-        <v>79.51045203154588</v>
+        <v>79.5104520315459</v>
       </c>
       <c r="S28" t="n">
         <v>30.81713233814667</v>
       </c>
       <c r="T28" t="n">
-        <v>7.555582785043786</v>
+        <v>7.555582785043787</v>
       </c>
       <c r="U28" t="n">
         <v>0.09645424831970804</v>
@@ -33175,7 +33175,7 @@
         <v>3.942183683418546</v>
       </c>
       <c r="H29" t="n">
-        <v>40.37288864781019</v>
+        <v>40.3728886478102</v>
       </c>
       <c r="I29" t="n">
         <v>151.9810364549936</v>
@@ -33190,7 +33190,7 @@
         <v>622.1061516210727</v>
       </c>
       <c r="M29" t="n">
-        <v>692.2129607010672</v>
+        <v>692.2129607010673</v>
       </c>
       <c r="N29" t="n">
         <v>703.4136900915803</v>
@@ -33199,19 +33199,19 @@
         <v>664.2136010895871</v>
       </c>
       <c r="P29" t="n">
-        <v>566.8909414051916</v>
+        <v>566.8909414051917</v>
       </c>
       <c r="Q29" t="n">
-        <v>425.7114882427648</v>
+        <v>425.7114882427649</v>
       </c>
       <c r="R29" t="n">
-        <v>247.6331958035404</v>
+        <v>247.6331958035405</v>
       </c>
       <c r="S29" t="n">
-        <v>89.8325106859002</v>
+        <v>89.83251068590022</v>
       </c>
       <c r="T29" t="n">
-        <v>17.25690907416469</v>
+        <v>17.2569090741647</v>
       </c>
       <c r="U29" t="n">
         <v>0.3153746946734836</v>
@@ -33260,7 +33260,7 @@
         <v>72.62125284259773</v>
       </c>
       <c r="J30" t="n">
-        <v>199.2782684690952</v>
+        <v>199.2782684690953</v>
       </c>
       <c r="K30" t="n">
         <v>340.5983013892892</v>
@@ -33272,7 +33272,7 @@
         <v>534.4369142314483</v>
       </c>
       <c r="N30" t="n">
-        <v>548.5818690844843</v>
+        <v>548.5818690844844</v>
       </c>
       <c r="O30" t="n">
         <v>501.8452360448915</v>
@@ -33281,7 +33281,7 @@
         <v>402.7750453835694</v>
       </c>
       <c r="Q30" t="n">
-        <v>269.2444513033075</v>
+        <v>269.2444513033076</v>
       </c>
       <c r="R30" t="n">
         <v>130.9587841069826</v>
@@ -33336,10 +33336,10 @@
         <v>15.7220424761124</v>
       </c>
       <c r="I31" t="n">
-        <v>53.17844224026565</v>
+        <v>53.17844224026566</v>
       </c>
       <c r="J31" t="n">
-        <v>125.0207815303947</v>
+        <v>125.0207815303948</v>
       </c>
       <c r="K31" t="n">
         <v>205.4475489209779</v>
@@ -33363,13 +33363,13 @@
         <v>148.073346878805</v>
       </c>
       <c r="R31" t="n">
-        <v>79.51045203154588</v>
+        <v>79.5104520315459</v>
       </c>
       <c r="S31" t="n">
         <v>30.81713233814667</v>
       </c>
       <c r="T31" t="n">
-        <v>7.555582785043786</v>
+        <v>7.555582785043787</v>
       </c>
       <c r="U31" t="n">
         <v>0.09645424831970804</v>
@@ -33412,7 +33412,7 @@
         <v>3.942183683418546</v>
       </c>
       <c r="H32" t="n">
-        <v>40.37288864781019</v>
+        <v>40.3728886478102</v>
       </c>
       <c r="I32" t="n">
         <v>151.9810364549936</v>
@@ -33427,7 +33427,7 @@
         <v>622.1061516210727</v>
       </c>
       <c r="M32" t="n">
-        <v>692.2129607010672</v>
+        <v>692.2129607010673</v>
       </c>
       <c r="N32" t="n">
         <v>703.4136900915803</v>
@@ -33436,19 +33436,19 @@
         <v>664.2136010895871</v>
       </c>
       <c r="P32" t="n">
-        <v>566.8909414051916</v>
+        <v>566.8909414051917</v>
       </c>
       <c r="Q32" t="n">
-        <v>425.7114882427648</v>
+        <v>425.7114882427649</v>
       </c>
       <c r="R32" t="n">
-        <v>247.6331958035404</v>
+        <v>247.6331958035405</v>
       </c>
       <c r="S32" t="n">
-        <v>89.8325106859002</v>
+        <v>89.83251068590022</v>
       </c>
       <c r="T32" t="n">
-        <v>17.25690907416469</v>
+        <v>17.2569090741647</v>
       </c>
       <c r="U32" t="n">
         <v>0.3153746946734836</v>
@@ -33497,7 +33497,7 @@
         <v>72.62125284259773</v>
       </c>
       <c r="J33" t="n">
-        <v>199.2782684690952</v>
+        <v>199.2782684690953</v>
       </c>
       <c r="K33" t="n">
         <v>340.5983013892892</v>
@@ -33509,7 +33509,7 @@
         <v>534.4369142314483</v>
       </c>
       <c r="N33" t="n">
-        <v>548.5818690844843</v>
+        <v>548.5818690844844</v>
       </c>
       <c r="O33" t="n">
         <v>501.8452360448915</v>
@@ -33518,7 +33518,7 @@
         <v>402.7750453835694</v>
       </c>
       <c r="Q33" t="n">
-        <v>269.2444513033075</v>
+        <v>269.2444513033076</v>
       </c>
       <c r="R33" t="n">
         <v>130.9587841069826</v>
@@ -33573,10 +33573,10 @@
         <v>15.7220424761124</v>
       </c>
       <c r="I34" t="n">
-        <v>53.17844224026565</v>
+        <v>53.17844224026566</v>
       </c>
       <c r="J34" t="n">
-        <v>125.0207815303947</v>
+        <v>125.0207815303948</v>
       </c>
       <c r="K34" t="n">
         <v>205.4475489209779</v>
@@ -33600,13 +33600,13 @@
         <v>148.073346878805</v>
       </c>
       <c r="R34" t="n">
-        <v>79.51045203154588</v>
+        <v>79.5104520315459</v>
       </c>
       <c r="S34" t="n">
         <v>30.81713233814667</v>
       </c>
       <c r="T34" t="n">
-        <v>7.555582785043786</v>
+        <v>7.555582785043787</v>
       </c>
       <c r="U34" t="n">
         <v>0.09645424831970804</v>
@@ -33649,7 +33649,7 @@
         <v>3.942183683418546</v>
       </c>
       <c r="H35" t="n">
-        <v>40.37288864781019</v>
+        <v>40.3728886478102</v>
       </c>
       <c r="I35" t="n">
         <v>151.9810364549936</v>
@@ -33664,7 +33664,7 @@
         <v>622.1061516210727</v>
       </c>
       <c r="M35" t="n">
-        <v>692.2129607010672</v>
+        <v>692.2129607010673</v>
       </c>
       <c r="N35" t="n">
         <v>703.4136900915803</v>
@@ -33673,19 +33673,19 @@
         <v>664.2136010895871</v>
       </c>
       <c r="P35" t="n">
-        <v>566.8909414051916</v>
+        <v>566.8909414051917</v>
       </c>
       <c r="Q35" t="n">
-        <v>425.7114882427648</v>
+        <v>425.7114882427649</v>
       </c>
       <c r="R35" t="n">
-        <v>247.6331958035404</v>
+        <v>247.6331958035405</v>
       </c>
       <c r="S35" t="n">
-        <v>89.8325106859002</v>
+        <v>89.83251068590022</v>
       </c>
       <c r="T35" t="n">
-        <v>17.25690907416469</v>
+        <v>17.2569090741647</v>
       </c>
       <c r="U35" t="n">
         <v>0.3153746946734836</v>
@@ -33734,7 +33734,7 @@
         <v>72.62125284259773</v>
       </c>
       <c r="J36" t="n">
-        <v>199.2782684690952</v>
+        <v>199.2782684690953</v>
       </c>
       <c r="K36" t="n">
         <v>340.5983013892892</v>
@@ -33746,7 +33746,7 @@
         <v>534.4369142314483</v>
       </c>
       <c r="N36" t="n">
-        <v>548.5818690844843</v>
+        <v>548.5818690844844</v>
       </c>
       <c r="O36" t="n">
         <v>501.8452360448915</v>
@@ -33755,7 +33755,7 @@
         <v>402.7750453835694</v>
       </c>
       <c r="Q36" t="n">
-        <v>269.2444513033075</v>
+        <v>269.2444513033076</v>
       </c>
       <c r="R36" t="n">
         <v>130.9587841069826</v>
@@ -33810,10 +33810,10 @@
         <v>15.7220424761124</v>
       </c>
       <c r="I37" t="n">
-        <v>53.17844224026565</v>
+        <v>53.17844224026566</v>
       </c>
       <c r="J37" t="n">
-        <v>125.0207815303947</v>
+        <v>125.0207815303948</v>
       </c>
       <c r="K37" t="n">
         <v>205.4475489209779</v>
@@ -33837,13 +33837,13 @@
         <v>148.073346878805</v>
       </c>
       <c r="R37" t="n">
-        <v>79.51045203154588</v>
+        <v>79.5104520315459</v>
       </c>
       <c r="S37" t="n">
         <v>30.81713233814667</v>
       </c>
       <c r="T37" t="n">
-        <v>7.555582785043786</v>
+        <v>7.555582785043787</v>
       </c>
       <c r="U37" t="n">
         <v>0.09645424831970804</v>
@@ -34123,7 +34123,7 @@
         <v>3.942183683418546</v>
       </c>
       <c r="H41" t="n">
-        <v>40.37288864781019</v>
+        <v>40.3728886478102</v>
       </c>
       <c r="I41" t="n">
         <v>151.9810364549936</v>
@@ -34138,7 +34138,7 @@
         <v>622.1061516210727</v>
       </c>
       <c r="M41" t="n">
-        <v>692.2129607010672</v>
+        <v>692.2129607010673</v>
       </c>
       <c r="N41" t="n">
         <v>703.4136900915803</v>
@@ -34147,19 +34147,19 @@
         <v>664.2136010895871</v>
       </c>
       <c r="P41" t="n">
-        <v>566.8909414051916</v>
+        <v>566.8909414051917</v>
       </c>
       <c r="Q41" t="n">
-        <v>425.7114882427648</v>
+        <v>425.7114882427649</v>
       </c>
       <c r="R41" t="n">
-        <v>247.6331958035404</v>
+        <v>247.6331958035405</v>
       </c>
       <c r="S41" t="n">
-        <v>89.8325106859002</v>
+        <v>89.83251068590022</v>
       </c>
       <c r="T41" t="n">
-        <v>17.25690907416469</v>
+        <v>17.2569090741647</v>
       </c>
       <c r="U41" t="n">
         <v>0.3153746946734836</v>
@@ -34208,7 +34208,7 @@
         <v>72.62125284259773</v>
       </c>
       <c r="J42" t="n">
-        <v>199.2782684690952</v>
+        <v>199.2782684690953</v>
       </c>
       <c r="K42" t="n">
         <v>340.5983013892892</v>
@@ -34220,7 +34220,7 @@
         <v>534.4369142314483</v>
       </c>
       <c r="N42" t="n">
-        <v>548.5818690844843</v>
+        <v>548.5818690844844</v>
       </c>
       <c r="O42" t="n">
         <v>501.8452360448915</v>
@@ -34229,7 +34229,7 @@
         <v>402.7750453835694</v>
       </c>
       <c r="Q42" t="n">
-        <v>269.2444513033075</v>
+        <v>269.2444513033076</v>
       </c>
       <c r="R42" t="n">
         <v>130.9587841069826</v>
@@ -34284,10 +34284,10 @@
         <v>15.7220424761124</v>
       </c>
       <c r="I43" t="n">
-        <v>53.17844224026565</v>
+        <v>53.17844224026566</v>
       </c>
       <c r="J43" t="n">
-        <v>125.0207815303947</v>
+        <v>125.0207815303948</v>
       </c>
       <c r="K43" t="n">
         <v>205.4475489209779</v>
@@ -34311,13 +34311,13 @@
         <v>148.073346878805</v>
       </c>
       <c r="R43" t="n">
-        <v>79.51045203154588</v>
+        <v>79.5104520315459</v>
       </c>
       <c r="S43" t="n">
         <v>30.81713233814667</v>
       </c>
       <c r="T43" t="n">
-        <v>7.555582785043786</v>
+        <v>7.555582785043787</v>
       </c>
       <c r="U43" t="n">
         <v>0.09645424831970804</v>
@@ -34360,7 +34360,7 @@
         <v>3.942183683418546</v>
       </c>
       <c r="H44" t="n">
-        <v>40.37288864781019</v>
+        <v>40.3728886478102</v>
       </c>
       <c r="I44" t="n">
         <v>151.9810364549936</v>
@@ -34375,7 +34375,7 @@
         <v>622.1061516210727</v>
       </c>
       <c r="M44" t="n">
-        <v>692.2129607010672</v>
+        <v>692.2129607010673</v>
       </c>
       <c r="N44" t="n">
         <v>703.4136900915803</v>
@@ -34384,19 +34384,19 @@
         <v>664.2136010895871</v>
       </c>
       <c r="P44" t="n">
-        <v>566.8909414051916</v>
+        <v>566.8909414051917</v>
       </c>
       <c r="Q44" t="n">
-        <v>425.7114882427648</v>
+        <v>425.7114882427649</v>
       </c>
       <c r="R44" t="n">
-        <v>247.6331958035404</v>
+        <v>247.6331958035405</v>
       </c>
       <c r="S44" t="n">
-        <v>89.8325106859002</v>
+        <v>89.83251068590022</v>
       </c>
       <c r="T44" t="n">
-        <v>17.25690907416469</v>
+        <v>17.2569090741647</v>
       </c>
       <c r="U44" t="n">
         <v>0.3153746946734836</v>
@@ -34445,7 +34445,7 @@
         <v>72.62125284259773</v>
       </c>
       <c r="J45" t="n">
-        <v>199.2782684690952</v>
+        <v>199.2782684690953</v>
       </c>
       <c r="K45" t="n">
         <v>340.5983013892892</v>
@@ -34457,7 +34457,7 @@
         <v>534.4369142314483</v>
       </c>
       <c r="N45" t="n">
-        <v>548.5818690844843</v>
+        <v>548.5818690844844</v>
       </c>
       <c r="O45" t="n">
         <v>501.8452360448915</v>
@@ -34466,7 +34466,7 @@
         <v>402.7750453835694</v>
       </c>
       <c r="Q45" t="n">
-        <v>269.2444513033075</v>
+        <v>269.2444513033076</v>
       </c>
       <c r="R45" t="n">
         <v>130.9587841069826</v>
@@ -34521,10 +34521,10 @@
         <v>15.7220424761124</v>
       </c>
       <c r="I46" t="n">
-        <v>53.17844224026565</v>
+        <v>53.17844224026566</v>
       </c>
       <c r="J46" t="n">
-        <v>125.0207815303947</v>
+        <v>125.0207815303948</v>
       </c>
       <c r="K46" t="n">
         <v>205.4475489209779</v>
@@ -34548,13 +34548,13 @@
         <v>148.073346878805</v>
       </c>
       <c r="R46" t="n">
-        <v>79.51045203154588</v>
+        <v>79.5104520315459</v>
       </c>
       <c r="S46" t="n">
         <v>30.81713233814667</v>
       </c>
       <c r="T46" t="n">
-        <v>7.555582785043786</v>
+        <v>7.555582785043787</v>
       </c>
       <c r="U46" t="n">
         <v>0.09645424831970804</v>
@@ -34781,16 +34781,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35021,16 +35021,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.679646369519427</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>234.0017634719808</v>
@@ -35267,7 +35267,7 @@
         <v>244.5627323611424</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.679646369519445</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>322.6386230459326</v>
       </c>
       <c r="K11" t="n">
-        <v>605.5161092458364</v>
+        <v>605.5161092458366</v>
       </c>
       <c r="L11" t="n">
         <v>804.0009512015359</v>
       </c>
       <c r="M11" t="n">
-        <v>572.2683608522402</v>
+        <v>637.9847807252186</v>
       </c>
       <c r="N11" t="n">
         <v>474.0006264949894</v>
@@ -35425,13 +35425,13 @@
         <v>814.9155709306457</v>
       </c>
       <c r="P11" t="n">
-        <v>657.4566538214046</v>
+        <v>657.4566538214049</v>
       </c>
       <c r="Q11" t="n">
-        <v>415.72078902822</v>
+        <v>415.7207890282201</v>
       </c>
       <c r="R11" t="n">
-        <v>97.76407786239076</v>
+        <v>32.04765798940835</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>198.5316771428374</v>
       </c>
       <c r="K12" t="n">
-        <v>234.6480499135346</v>
+        <v>202.7568624149303</v>
       </c>
       <c r="L12" t="n">
-        <v>319.4220688790813</v>
+        <v>351.3132563776855</v>
       </c>
       <c r="M12" t="n">
         <v>392.30288030943</v>
       </c>
       <c r="N12" t="n">
-        <v>417.240157001151</v>
+        <v>417.2401570011511</v>
       </c>
       <c r="O12" t="n">
-        <v>359.248991600447</v>
+        <v>359.2489916004471</v>
       </c>
       <c r="P12" t="n">
-        <v>268.8006379692391</v>
+        <v>268.8006379692392</v>
       </c>
       <c r="Q12" t="n">
-        <v>339.3399649531351</v>
+        <v>339.3399649531352</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.66160141372197</v>
+        <v>31.661601413722</v>
       </c>
       <c r="K13" t="n">
         <v>183.178057095095</v>
@@ -35574,19 +35574,19 @@
         <v>290.4921547637334</v>
       </c>
       <c r="M13" t="n">
-        <v>316.7773109246278</v>
+        <v>316.7773109246279</v>
       </c>
       <c r="N13" t="n">
         <v>314.7345660401694</v>
       </c>
       <c r="O13" t="n">
-        <v>274.5302367265095</v>
+        <v>274.5302367265096</v>
       </c>
       <c r="P13" t="n">
-        <v>211.1497792057924</v>
+        <v>211.1497792057925</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.91130362711057</v>
+        <v>61.9113036271106</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>322.6386230459326</v>
       </c>
       <c r="K14" t="n">
-        <v>531.6561741536891</v>
+        <v>605.5161092458366</v>
       </c>
       <c r="L14" t="n">
         <v>804.0009512015359</v>
       </c>
       <c r="M14" t="n">
-        <v>911.380260966627</v>
+        <v>572.2683608522357</v>
       </c>
       <c r="N14" t="n">
-        <v>911.3475509069735</v>
+        <v>474.0006264949894</v>
       </c>
       <c r="O14" t="n">
-        <v>434.1153896679003</v>
+        <v>814.9155709306457</v>
       </c>
       <c r="P14" t="n">
-        <v>335.6579456499221</v>
+        <v>657.4566538214049</v>
       </c>
       <c r="Q14" t="n">
-        <v>415.72078902822</v>
+        <v>415.7207890282201</v>
       </c>
       <c r="R14" t="n">
-        <v>97.76407786239076</v>
+        <v>97.76407786239079</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>198.5316771428374</v>
       </c>
       <c r="K15" t="n">
-        <v>234.6480499135347</v>
+        <v>413.9243876950436</v>
       </c>
       <c r="L15" t="n">
         <v>319.4220688790813</v>
@@ -35735,19 +35735,19 @@
         <v>392.30288030943</v>
       </c>
       <c r="N15" t="n">
-        <v>417.240157001151</v>
+        <v>417.2401570011511</v>
       </c>
       <c r="O15" t="n">
-        <v>359.248991600447</v>
+        <v>359.2489916004471</v>
       </c>
       <c r="P15" t="n">
-        <v>268.8006379692391</v>
+        <v>268.8006379692392</v>
       </c>
       <c r="Q15" t="n">
-        <v>339.3399649531351</v>
+        <v>129.2626772172861</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>30.80094995433952</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>31.66160141372197</v>
+        <v>31.661601413722</v>
       </c>
       <c r="K16" t="n">
         <v>183.178057095095</v>
@@ -35811,19 +35811,19 @@
         <v>290.4921547637334</v>
       </c>
       <c r="M16" t="n">
-        <v>316.7773109246278</v>
+        <v>316.7773109246279</v>
       </c>
       <c r="N16" t="n">
         <v>314.7345660401694</v>
       </c>
       <c r="O16" t="n">
-        <v>274.5302367265095</v>
+        <v>274.5302367265096</v>
       </c>
       <c r="P16" t="n">
-        <v>211.1497792057924</v>
+        <v>211.1497792057925</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.91130362711057</v>
+        <v>61.9113036271106</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>153.5420078738588</v>
+        <v>322.6386230459326</v>
       </c>
       <c r="K17" t="n">
-        <v>281.3706966746717</v>
+        <v>605.5161092458366</v>
       </c>
       <c r="L17" t="n">
         <v>804.0009512015359</v>
       </c>
       <c r="M17" t="n">
-        <v>911.380260966627</v>
+        <v>461.8667274737946</v>
       </c>
       <c r="N17" t="n">
-        <v>911.3475509069735</v>
+        <v>584.4022598734306</v>
       </c>
       <c r="O17" t="n">
-        <v>597.4151940204919</v>
+        <v>814.9155709306457</v>
       </c>
       <c r="P17" t="n">
-        <v>657.4566538214046</v>
+        <v>657.4566538214049</v>
       </c>
       <c r="Q17" t="n">
-        <v>415.72078902822</v>
+        <v>415.7207890282201</v>
       </c>
       <c r="R17" t="n">
-        <v>32.04765798940832</v>
+        <v>97.76407786239079</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>198.5316771428374</v>
       </c>
       <c r="K18" t="n">
-        <v>202.7568624149302</v>
+        <v>202.7568624149303</v>
       </c>
       <c r="L18" t="n">
         <v>319.4220688790813</v>
       </c>
       <c r="M18" t="n">
-        <v>393.3931178536949</v>
+        <v>424.1940678080341</v>
       </c>
       <c r="N18" t="n">
-        <v>417.240157001151</v>
+        <v>417.2401570011511</v>
       </c>
       <c r="O18" t="n">
-        <v>359.248991600447</v>
+        <v>359.2489916004471</v>
       </c>
       <c r="P18" t="n">
-        <v>268.8006379692391</v>
+        <v>268.8006379692392</v>
       </c>
       <c r="Q18" t="n">
-        <v>339.3399649531351</v>
+        <v>339.3399649531352</v>
       </c>
       <c r="R18" t="n">
-        <v>30.80094995433949</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>31.66160141372197</v>
+        <v>31.661601413722</v>
       </c>
       <c r="K19" t="n">
         <v>183.178057095095</v>
@@ -36048,19 +36048,19 @@
         <v>290.4921547637334</v>
       </c>
       <c r="M19" t="n">
-        <v>316.7773109246278</v>
+        <v>316.7773109246279</v>
       </c>
       <c r="N19" t="n">
         <v>314.7345660401694</v>
       </c>
       <c r="O19" t="n">
-        <v>274.5302367265095</v>
+        <v>274.5302367265096</v>
       </c>
       <c r="P19" t="n">
-        <v>211.1497792057924</v>
+        <v>211.1497792057925</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.91130362711057</v>
+        <v>61.9113036271106</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>322.6386230459326</v>
       </c>
       <c r="K20" t="n">
-        <v>281.3706966746717</v>
+        <v>281.3706966746718</v>
       </c>
       <c r="L20" t="n">
         <v>804.0009512015359</v>
       </c>
       <c r="M20" t="n">
-        <v>911.380260966627</v>
+        <v>911.3802609666271</v>
       </c>
       <c r="N20" t="n">
         <v>911.3475509069735</v>
@@ -36139,10 +36139,10 @@
         <v>585.9434231289396</v>
       </c>
       <c r="Q20" t="n">
-        <v>415.72078902822</v>
+        <v>415.7207890282201</v>
       </c>
       <c r="R20" t="n">
-        <v>97.76407786239076</v>
+        <v>97.76407786239079</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>198.5316771428374</v>
       </c>
       <c r="K21" t="n">
-        <v>203.8470999591952</v>
+        <v>202.7568624149303</v>
       </c>
       <c r="L21" t="n">
-        <v>319.4220688790813</v>
+        <v>320.512306423346</v>
       </c>
       <c r="M21" t="n">
         <v>392.30288030943</v>
       </c>
       <c r="N21" t="n">
-        <v>417.240157001151</v>
+        <v>417.2401570011511</v>
       </c>
       <c r="O21" t="n">
-        <v>359.248991600447</v>
+        <v>359.2489916004471</v>
       </c>
       <c r="P21" t="n">
-        <v>268.8006379692391</v>
+        <v>268.8006379692392</v>
       </c>
       <c r="Q21" t="n">
-        <v>339.3399649531351</v>
+        <v>339.3399649531352</v>
       </c>
       <c r="R21" t="n">
-        <v>30.80094995433949</v>
+        <v>30.80094995433952</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>31.66160141372197</v>
+        <v>31.661601413722</v>
       </c>
       <c r="K22" t="n">
         <v>183.178057095095</v>
@@ -36285,19 +36285,19 @@
         <v>290.4921547637334</v>
       </c>
       <c r="M22" t="n">
-        <v>316.7773109246278</v>
+        <v>316.7773109246279</v>
       </c>
       <c r="N22" t="n">
         <v>314.7345660401694</v>
       </c>
       <c r="O22" t="n">
-        <v>274.5302367265095</v>
+        <v>274.5302367265096</v>
       </c>
       <c r="P22" t="n">
-        <v>211.1497792057924</v>
+        <v>211.1497792057925</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.91130362711057</v>
+        <v>61.9113036271106</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>322.6386230459326</v>
       </c>
       <c r="K23" t="n">
-        <v>281.3706966746717</v>
+        <v>605.5161092458366</v>
       </c>
       <c r="L23" t="n">
         <v>804.0009512015359</v>
       </c>
       <c r="M23" t="n">
-        <v>911.380260966627</v>
+        <v>461.8667274737946</v>
       </c>
       <c r="N23" t="n">
-        <v>911.3475509069735</v>
+        <v>650.1186797464135</v>
       </c>
       <c r="O23" t="n">
         <v>814.9155709306457</v>
       </c>
       <c r="P23" t="n">
-        <v>335.6579456499221</v>
+        <v>657.4566538214049</v>
       </c>
       <c r="Q23" t="n">
-        <v>285.2060852444928</v>
+        <v>415.7207890282201</v>
       </c>
       <c r="R23" t="n">
-        <v>97.76407786239076</v>
+        <v>32.04765798940835</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>198.5316771428374</v>
       </c>
       <c r="K24" t="n">
-        <v>234.6480499135347</v>
+        <v>413.9243876950436</v>
       </c>
       <c r="L24" t="n">
         <v>319.4220688790813</v>
@@ -36446,19 +36446,19 @@
         <v>392.30288030943</v>
       </c>
       <c r="N24" t="n">
-        <v>417.240157001151</v>
+        <v>417.2401570011511</v>
       </c>
       <c r="O24" t="n">
-        <v>359.248991600447</v>
+        <v>359.2489916004471</v>
       </c>
       <c r="P24" t="n">
-        <v>268.8006379692391</v>
+        <v>268.8006379692392</v>
       </c>
       <c r="Q24" t="n">
-        <v>339.3399649531351</v>
+        <v>129.2626772172861</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>30.80094995433952</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>31.66160141372197</v>
+        <v>31.661601413722</v>
       </c>
       <c r="K25" t="n">
         <v>183.178057095095</v>
@@ -36522,19 +36522,19 @@
         <v>290.4921547637334</v>
       </c>
       <c r="M25" t="n">
-        <v>316.7773109246278</v>
+        <v>316.7773109246279</v>
       </c>
       <c r="N25" t="n">
         <v>314.7345660401694</v>
       </c>
       <c r="O25" t="n">
-        <v>274.5302367265095</v>
+        <v>274.5302367265096</v>
       </c>
       <c r="P25" t="n">
-        <v>211.1497792057924</v>
+        <v>211.1497792057925</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.91130362711057</v>
+        <v>61.9113036271106</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>153.5420078738588</v>
+        <v>322.6386230459326</v>
       </c>
       <c r="K26" t="n">
-        <v>605.5161092458364</v>
+        <v>605.5161092458366</v>
       </c>
       <c r="L26" t="n">
-        <v>804.0009512015359</v>
+        <v>742.9204616200324</v>
       </c>
       <c r="M26" t="n">
-        <v>461.8667274737945</v>
+        <v>911.3802609666271</v>
       </c>
       <c r="N26" t="n">
-        <v>911.3475509069735</v>
+        <v>474.0006264949894</v>
       </c>
       <c r="O26" t="n">
         <v>814.9155709306457</v>
       </c>
       <c r="P26" t="n">
-        <v>565.3243978329189</v>
+        <v>657.4566538214049</v>
       </c>
       <c r="Q26" t="n">
-        <v>415.72078902822</v>
+        <v>203.4057983683154</v>
       </c>
       <c r="R26" t="n">
-        <v>32.04765798940832</v>
+        <v>32.04765798940835</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>198.5316771428374</v>
       </c>
       <c r="K27" t="n">
-        <v>203.8470999591952</v>
+        <v>202.7568624149303</v>
       </c>
       <c r="L27" t="n">
-        <v>319.4220688790813</v>
+        <v>351.3132563776855</v>
       </c>
       <c r="M27" t="n">
         <v>392.30288030943</v>
       </c>
       <c r="N27" t="n">
-        <v>417.240157001151</v>
+        <v>417.2401570011511</v>
       </c>
       <c r="O27" t="n">
-        <v>359.248991600447</v>
+        <v>359.2489916004471</v>
       </c>
       <c r="P27" t="n">
-        <v>268.8006379692391</v>
+        <v>268.8006379692392</v>
       </c>
       <c r="Q27" t="n">
-        <v>339.3399649531351</v>
+        <v>339.3399649531352</v>
       </c>
       <c r="R27" t="n">
-        <v>30.80094995433949</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>31.66160141372197</v>
+        <v>31.661601413722</v>
       </c>
       <c r="K28" t="n">
         <v>183.178057095095</v>
@@ -36759,19 +36759,19 @@
         <v>290.4921547637334</v>
       </c>
       <c r="M28" t="n">
-        <v>316.7773109246278</v>
+        <v>316.7773109246279</v>
       </c>
       <c r="N28" t="n">
         <v>314.7345660401694</v>
       </c>
       <c r="O28" t="n">
-        <v>274.5302367265095</v>
+        <v>274.5302367265096</v>
       </c>
       <c r="P28" t="n">
-        <v>211.1497792057924</v>
+        <v>211.1497792057925</v>
       </c>
       <c r="Q28" t="n">
-        <v>61.91130362711057</v>
+        <v>61.9113036271106</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>322.6386230459326</v>
       </c>
       <c r="K29" t="n">
-        <v>605.5161092458364</v>
+        <v>605.5161092458366</v>
       </c>
       <c r="L29" t="n">
-        <v>464.8890510871448</v>
+        <v>804.0009512015359</v>
       </c>
       <c r="M29" t="n">
-        <v>911.380260966627</v>
+        <v>572.2683608522357</v>
       </c>
       <c r="N29" t="n">
         <v>474.0006264949894</v>
@@ -36847,13 +36847,13 @@
         <v>814.9155709306457</v>
       </c>
       <c r="P29" t="n">
-        <v>657.4566538214046</v>
+        <v>657.4566538214049</v>
       </c>
       <c r="Q29" t="n">
-        <v>415.72078902822</v>
+        <v>415.7207890282201</v>
       </c>
       <c r="R29" t="n">
-        <v>97.76407786239076</v>
+        <v>97.76407786239079</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>198.5316771428374</v>
       </c>
       <c r="K30" t="n">
-        <v>203.8470999591952</v>
+        <v>202.7568624149303</v>
       </c>
       <c r="L30" t="n">
         <v>319.4220688790813</v>
@@ -36920,19 +36920,19 @@
         <v>392.30288030943</v>
       </c>
       <c r="N30" t="n">
-        <v>417.240157001151</v>
+        <v>417.2401570011511</v>
       </c>
       <c r="O30" t="n">
-        <v>359.248991600447</v>
+        <v>391.1401790990512</v>
       </c>
       <c r="P30" t="n">
-        <v>268.8006379692391</v>
+        <v>268.8006379692392</v>
       </c>
       <c r="Q30" t="n">
-        <v>339.3399649531351</v>
+        <v>339.3399649531352</v>
       </c>
       <c r="R30" t="n">
-        <v>30.80094995433949</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>31.66160141372197</v>
+        <v>31.661601413722</v>
       </c>
       <c r="K31" t="n">
         <v>183.178057095095</v>
@@ -36996,19 +36996,19 @@
         <v>290.4921547637334</v>
       </c>
       <c r="M31" t="n">
-        <v>316.7773109246278</v>
+        <v>316.7773109246279</v>
       </c>
       <c r="N31" t="n">
         <v>314.7345660401694</v>
       </c>
       <c r="O31" t="n">
-        <v>274.5302367265095</v>
+        <v>274.5302367265096</v>
       </c>
       <c r="P31" t="n">
-        <v>211.1497792057924</v>
+        <v>211.1497792057925</v>
       </c>
       <c r="Q31" t="n">
-        <v>61.91130362711057</v>
+        <v>61.9113036271106</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>322.6386230459326</v>
       </c>
       <c r="K32" t="n">
-        <v>605.5161092458364</v>
+        <v>281.3706966746718</v>
       </c>
       <c r="L32" t="n">
         <v>804.0009512015359</v>
       </c>
       <c r="M32" t="n">
-        <v>911.380260966627</v>
+        <v>911.3802609666271</v>
       </c>
       <c r="N32" t="n">
-        <v>567.3549250362709</v>
+        <v>911.3475509069735</v>
       </c>
       <c r="O32" t="n">
         <v>434.1153896679003</v>
       </c>
       <c r="P32" t="n">
-        <v>657.4566538214046</v>
+        <v>571.8930206488839</v>
       </c>
       <c r="Q32" t="n">
-        <v>415.72078902822</v>
+        <v>415.7207890282201</v>
       </c>
       <c r="R32" t="n">
-        <v>32.04765798940832</v>
+        <v>97.76407786239079</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>198.5316771428374</v>
       </c>
       <c r="K33" t="n">
-        <v>202.7568624149302</v>
+        <v>202.7568624149303</v>
       </c>
       <c r="L33" t="n">
         <v>319.4220688790813</v>
@@ -37157,19 +37157,19 @@
         <v>392.30288030943</v>
       </c>
       <c r="N33" t="n">
-        <v>417.240157001151</v>
+        <v>417.2401570011511</v>
       </c>
       <c r="O33" t="n">
-        <v>359.248991600447</v>
+        <v>359.2489916004471</v>
       </c>
       <c r="P33" t="n">
-        <v>269.8908755135043</v>
+        <v>300.6918254678434</v>
       </c>
       <c r="Q33" t="n">
-        <v>339.3399649531351</v>
+        <v>339.3399649531352</v>
       </c>
       <c r="R33" t="n">
-        <v>30.80094995433949</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>56.96833202885767</v>
+        <v>56.9683320288576</v>
       </c>
       <c r="K34" t="n">
-        <v>208.4847877102307</v>
+        <v>208.4847877102306</v>
       </c>
       <c r="L34" t="n">
-        <v>315.7988853788691</v>
+        <v>315.798885378869</v>
       </c>
       <c r="M34" t="n">
-        <v>342.0840415397636</v>
+        <v>342.0840415397635</v>
       </c>
       <c r="N34" t="n">
-        <v>340.0412966553051</v>
+        <v>340.041296655305</v>
       </c>
       <c r="O34" t="n">
-        <v>299.8369673416453</v>
+        <v>299.8369673416452</v>
       </c>
       <c r="P34" t="n">
         <v>236.4565098209281</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.21803424224626</v>
+        <v>87.2180342422462</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>322.6386230459326</v>
+        <v>153.5420078738588</v>
       </c>
       <c r="K35" t="n">
-        <v>306.4389586147639</v>
+        <v>281.3706966746718</v>
       </c>
       <c r="L35" t="n">
         <v>386.3397366510855</v>
       </c>
       <c r="M35" t="n">
-        <v>911.380260966627</v>
+        <v>911.3802609666271</v>
       </c>
       <c r="N35" t="n">
         <v>911.3475509069735</v>
@@ -37321,13 +37321,13 @@
         <v>434.1153896679003</v>
       </c>
       <c r="P35" t="n">
-        <v>335.6579456499221</v>
+        <v>335.6579456499222</v>
       </c>
       <c r="Q35" t="n">
-        <v>203.4057983683153</v>
+        <v>397.570675480481</v>
       </c>
       <c r="R35" t="n">
-        <v>97.76407786239076</v>
+        <v>97.76407786239079</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>198.5316771428374</v>
       </c>
       <c r="K36" t="n">
-        <v>202.7568624149302</v>
+        <v>202.7568624149303</v>
       </c>
       <c r="L36" t="n">
         <v>319.4220688790813</v>
@@ -37394,16 +37394,16 @@
         <v>392.30288030943</v>
       </c>
       <c r="N36" t="n">
-        <v>417.240157001151</v>
+        <v>449.1313444997554</v>
       </c>
       <c r="O36" t="n">
-        <v>359.248991600447</v>
+        <v>359.2489916004471</v>
       </c>
       <c r="P36" t="n">
-        <v>300.6918254678438</v>
+        <v>268.8006379692392</v>
       </c>
       <c r="Q36" t="n">
-        <v>339.3399649531351</v>
+        <v>339.3399649531352</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.53993952547992</v>
+        <v>87.53993952547998</v>
       </c>
       <c r="K37" t="n">
         <v>239.056395206853</v>
       </c>
       <c r="L37" t="n">
-        <v>346.3704928754913</v>
+        <v>346.3704928754914</v>
       </c>
       <c r="M37" t="n">
-        <v>372.6556490363858</v>
+        <v>372.6556490363859</v>
       </c>
       <c r="N37" t="n">
-        <v>370.6129041519273</v>
+        <v>370.6129041519274</v>
       </c>
       <c r="O37" t="n">
         <v>330.4085748382676</v>
       </c>
       <c r="P37" t="n">
-        <v>267.0281173175504</v>
+        <v>267.0281173175505</v>
       </c>
       <c r="Q37" t="n">
-        <v>117.7896417388685</v>
+        <v>117.7896417388686</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>322.6386230459326</v>
+        <v>223.7909564177411</v>
       </c>
       <c r="K38" t="n">
-        <v>306.4389586147639</v>
+        <v>281.3706966746718</v>
       </c>
       <c r="L38" t="n">
-        <v>386.3397366510855</v>
+        <v>804.0009512015359</v>
       </c>
       <c r="M38" t="n">
-        <v>911.3802609666271</v>
+        <v>461.8667274737946</v>
       </c>
       <c r="N38" t="n">
-        <v>911.3475509069735</v>
+        <v>474.0006264949894</v>
       </c>
       <c r="O38" t="n">
-        <v>434.1153896679003</v>
+        <v>814.9155709306457</v>
       </c>
       <c r="P38" t="n">
         <v>335.6579456499222</v>
       </c>
       <c r="Q38" t="n">
-        <v>203.4057983683154</v>
+        <v>415.7207890282201</v>
       </c>
       <c r="R38" t="n">
         <v>97.76407786239079</v>
@@ -37622,7 +37622,7 @@
         <v>198.5316771428374</v>
       </c>
       <c r="K39" t="n">
-        <v>234.6480499135345</v>
+        <v>202.7568624149303</v>
       </c>
       <c r="L39" t="n">
         <v>319.4220688790813</v>
@@ -37637,13 +37637,13 @@
         <v>359.2489916004471</v>
       </c>
       <c r="P39" t="n">
-        <v>268.8006379692392</v>
+        <v>269.8908755135037</v>
       </c>
       <c r="Q39" t="n">
         <v>339.3399649531352</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>30.80094995433952</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.53993952547995</v>
+        <v>87.53993952547994</v>
       </c>
       <c r="K40" t="n">
-        <v>239.056395206853</v>
+        <v>239.0563952068529</v>
       </c>
       <c r="L40" t="n">
         <v>346.3704928754914</v>
@@ -37710,7 +37710,7 @@
         <v>372.6556490363859</v>
       </c>
       <c r="N40" t="n">
-        <v>370.6129041519273</v>
+        <v>370.6129041519274</v>
       </c>
       <c r="O40" t="n">
         <v>330.4085748382676</v>
@@ -37719,7 +37719,7 @@
         <v>267.0281173175504</v>
       </c>
       <c r="Q40" t="n">
-        <v>117.7896417388686</v>
+        <v>117.7896417388685</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>322.6386230459326</v>
       </c>
       <c r="K41" t="n">
-        <v>605.5161092458364</v>
+        <v>605.5161092458366</v>
       </c>
       <c r="L41" t="n">
-        <v>440.0093450934418</v>
+        <v>386.3397366510855</v>
       </c>
       <c r="M41" t="n">
-        <v>461.8667274737945</v>
+        <v>461.8667274737946</v>
       </c>
       <c r="N41" t="n">
         <v>474.0006264949894</v>
       </c>
       <c r="O41" t="n">
-        <v>434.1153896679003</v>
+        <v>487.784998110257</v>
       </c>
       <c r="P41" t="n">
-        <v>657.4566538214046</v>
+        <v>657.4566538214049</v>
       </c>
       <c r="Q41" t="n">
-        <v>415.72078902822</v>
+        <v>415.7207890282201</v>
       </c>
       <c r="R41" t="n">
-        <v>97.76407786239076</v>
+        <v>97.76407786239079</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>198.5316771428374</v>
+        <v>72.44064180242856</v>
       </c>
       <c r="K42" t="n">
-        <v>202.7568624149302</v>
+        <v>202.7568624149303</v>
       </c>
       <c r="L42" t="n">
         <v>319.4220688790813</v>
@@ -37868,16 +37868,16 @@
         <v>392.30288030943</v>
       </c>
       <c r="N42" t="n">
-        <v>417.240157001151</v>
+        <v>785.2996675760128</v>
       </c>
       <c r="O42" t="n">
-        <v>359.248991600447</v>
+        <v>359.2489916004471</v>
       </c>
       <c r="P42" t="n">
-        <v>300.6918254678438</v>
+        <v>268.8006379692392</v>
       </c>
       <c r="Q42" t="n">
-        <v>339.3399649531351</v>
+        <v>129.2626772172861</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.53993952547994</v>
+        <v>87.53993952547999</v>
       </c>
       <c r="K43" t="n">
         <v>239.056395206853</v>
@@ -37944,19 +37944,19 @@
         <v>346.3704928754914</v>
       </c>
       <c r="M43" t="n">
-        <v>372.6556490363858</v>
+        <v>372.6556490363859</v>
       </c>
       <c r="N43" t="n">
         <v>370.6129041519274</v>
       </c>
       <c r="O43" t="n">
-        <v>330.4085748382675</v>
+        <v>330.4085748382676</v>
       </c>
       <c r="P43" t="n">
-        <v>267.0281173175504</v>
+        <v>267.0281173175505</v>
       </c>
       <c r="Q43" t="n">
-        <v>117.7896417388685</v>
+        <v>117.7896417388686</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>322.6386230459326</v>
+        <v>153.5420078738588</v>
       </c>
       <c r="K44" t="n">
-        <v>281.3706966746717</v>
+        <v>281.3706966746718</v>
       </c>
       <c r="L44" t="n">
-        <v>386.3397366510855</v>
+        <v>646.2210336362342</v>
       </c>
       <c r="M44" t="n">
-        <v>780.6802753960528</v>
+        <v>911.3802609666271</v>
       </c>
       <c r="N44" t="n">
-        <v>474.0006264949894</v>
+        <v>911.3475509069735</v>
       </c>
       <c r="O44" t="n">
-        <v>814.9155709306457</v>
+        <v>434.1153896679003</v>
       </c>
       <c r="P44" t="n">
-        <v>335.6579456499221</v>
+        <v>335.6579456499222</v>
       </c>
       <c r="Q44" t="n">
-        <v>415.72078902822</v>
+        <v>203.4057983683154</v>
       </c>
       <c r="R44" t="n">
-        <v>97.76407786239076</v>
+        <v>32.04765798940835</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>198.5316771428374</v>
       </c>
       <c r="K45" t="n">
-        <v>234.6480499135347</v>
+        <v>202.7568624149303</v>
       </c>
       <c r="L45" t="n">
         <v>319.4220688790813</v>
@@ -38105,19 +38105,19 @@
         <v>392.30288030943</v>
       </c>
       <c r="N45" t="n">
-        <v>417.240157001151</v>
+        <v>417.2401570011511</v>
       </c>
       <c r="O45" t="n">
-        <v>359.248991600447</v>
+        <v>360.3392291447117</v>
       </c>
       <c r="P45" t="n">
-        <v>268.8006379692391</v>
+        <v>268.8006379692392</v>
       </c>
       <c r="Q45" t="n">
-        <v>339.3399649531351</v>
+        <v>339.3399649531352</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>30.80094995433952</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.53993952547998</v>
+        <v>87.53993952547997</v>
       </c>
       <c r="K46" t="n">
         <v>239.056395206853</v>
@@ -38190,7 +38190,7 @@
         <v>330.4085748382676</v>
       </c>
       <c r="P46" t="n">
-        <v>267.0281173175505</v>
+        <v>267.0281173175504</v>
       </c>
       <c r="Q46" t="n">
         <v>117.7896417388686</v>
